--- a/hiqu/HR/Performance Evaluation/November 2024/Dev/Fawad Ahmad.xlsx
+++ b/hiqu/HR/Performance Evaluation/November 2024/Dev/Fawad Ahmad.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docs\hiqu\HR\Performance Evaluation\November 2024\Dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B91FC11-DACD-43EE-874B-D8092FC2EC87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F35FBA8-3128-4275-BB7E-4A521A56C718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-3840" windowWidth="29040" windowHeight="15720" xr2:uid="{C18F1D24-2B51-47D5-ADD3-847EF68750D1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{C18F1D24-2B51-47D5-ADD3-847EF68750D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Employee" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="123">
   <si>
     <t>Employee Name</t>
   </si>
@@ -969,12 +969,6 @@
     <xf numFmtId="164" fontId="12" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1132,6 +1126,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="14" fillId="3" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -3226,8 +3226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9386B91B-8D62-4F20-9CB7-F711303AA283}">
   <dimension ref="B2:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3319,7 +3319,7 @@
       </c>
       <c r="C10" s="128">
         <f ca="1">(_xlfn.DAYS(TODAY(),C9)/365)</f>
-        <v>0.32328767123287672</v>
+        <v>0.34246575342465752</v>
       </c>
       <c r="D10" s="128"/>
       <c r="E10" s="128"/>
@@ -3602,8 +3602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B079F4B-5067-4737-8530-43E9A567B062}">
   <dimension ref="B3:M31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3670,7 +3670,9 @@
       <c r="C7" s="37">
         <v>0.7</v>
       </c>
-      <c r="D7" s="37"/>
+      <c r="D7" s="37">
+        <v>0.7</v>
+      </c>
       <c r="E7" s="37"/>
       <c r="F7" s="37"/>
     </row>
@@ -3681,7 +3683,9 @@
       <c r="C8" s="37">
         <v>0.8</v>
       </c>
-      <c r="D8" s="37"/>
+      <c r="D8" s="37">
+        <v>0.8</v>
+      </c>
       <c r="E8" s="37"/>
       <c r="F8" s="37"/>
     </row>
@@ -3692,7 +3696,9 @@
       <c r="C9" s="37">
         <v>0.7</v>
       </c>
-      <c r="D9" s="37"/>
+      <c r="D9" s="37">
+        <v>0.6</v>
+      </c>
       <c r="E9" s="37"/>
       <c r="F9" s="37"/>
     </row>
@@ -3703,7 +3709,9 @@
       <c r="C10" s="37">
         <v>0.7</v>
       </c>
-      <c r="D10" s="37"/>
+      <c r="D10" s="37">
+        <v>0.7</v>
+      </c>
       <c r="E10" s="37"/>
       <c r="F10" s="37"/>
     </row>
@@ -3714,7 +3722,9 @@
       <c r="C11" s="37">
         <v>0.7</v>
       </c>
-      <c r="D11" s="37"/>
+      <c r="D11" s="37">
+        <v>0.7</v>
+      </c>
       <c r="E11" s="37"/>
       <c r="F11" s="37"/>
     </row>
@@ -3725,7 +3735,9 @@
       <c r="C12" s="37">
         <v>0.7</v>
       </c>
-      <c r="D12" s="37"/>
+      <c r="D12" s="37">
+        <v>0.7</v>
+      </c>
       <c r="E12" s="37"/>
       <c r="F12" s="37"/>
     </row>
@@ -3736,7 +3748,9 @@
       <c r="C13" s="37">
         <v>0.8</v>
       </c>
-      <c r="D13" s="37"/>
+      <c r="D13" s="37">
+        <v>0.7</v>
+      </c>
       <c r="E13" s="37"/>
       <c r="F13" s="37"/>
     </row>
@@ -3747,7 +3761,9 @@
       <c r="C14" s="37">
         <v>0.7</v>
       </c>
-      <c r="D14" s="37"/>
+      <c r="D14" s="37">
+        <v>0.7</v>
+      </c>
       <c r="E14" s="37"/>
       <c r="F14" s="37"/>
     </row>
@@ -3767,7 +3783,9 @@
       <c r="C16" s="37">
         <v>0.2</v>
       </c>
-      <c r="D16" s="37"/>
+      <c r="D16" s="37">
+        <v>0.25</v>
+      </c>
       <c r="E16" s="37"/>
       <c r="F16" s="37"/>
     </row>
@@ -3778,7 +3796,9 @@
       <c r="C17" s="37">
         <v>0.6</v>
       </c>
-      <c r="D17" s="37"/>
+      <c r="D17" s="37">
+        <v>0.6</v>
+      </c>
       <c r="E17" s="37"/>
       <c r="F17" s="37"/>
     </row>
@@ -3789,7 +3809,9 @@
       <c r="C18" s="37">
         <v>0.7</v>
       </c>
-      <c r="D18" s="37"/>
+      <c r="D18" s="37">
+        <v>0.7</v>
+      </c>
       <c r="E18" s="37"/>
       <c r="F18" s="37"/>
     </row>
@@ -3800,7 +3822,9 @@
       <c r="C19" s="37">
         <v>0.8</v>
       </c>
-      <c r="D19" s="37"/>
+      <c r="D19" s="37">
+        <v>0.8</v>
+      </c>
       <c r="E19" s="37"/>
       <c r="F19" s="37"/>
     </row>
@@ -3811,7 +3835,9 @@
       <c r="C20" s="37">
         <v>0.7</v>
       </c>
-      <c r="D20" s="37"/>
+      <c r="D20" s="37">
+        <v>0.7</v>
+      </c>
       <c r="E20" s="37"/>
       <c r="F20" s="37"/>
     </row>
@@ -3822,7 +3848,9 @@
       <c r="C21" s="37">
         <v>0.7</v>
       </c>
-      <c r="D21" s="37"/>
+      <c r="D21" s="37">
+        <v>0.7</v>
+      </c>
       <c r="E21" s="37"/>
       <c r="F21" s="37"/>
     </row>
@@ -3924,7 +3952,7 @@
     <mergeCell ref="B23:F23"/>
   </mergeCells>
   <conditionalFormatting sqref="C7:C14">
-    <cfRule type="dataBar" priority="5">
+    <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="num" val="1"/>
@@ -3938,7 +3966,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:C22">
-    <cfRule type="dataBar" priority="13">
+    <cfRule type="dataBar" priority="15">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="num" val="1"/>
@@ -3952,7 +3980,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24:C31">
-    <cfRule type="dataBar" priority="12">
+    <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="num" val="1"/>
@@ -3965,22 +3993,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D7:D14">
-    <cfRule type="dataBar" priority="11">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{A19B4C56-DD82-4020-AB78-A1EA9ED5C25B}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16:D22">
-    <cfRule type="dataBar" priority="14">
+  <conditionalFormatting sqref="D22">
+    <cfRule type="dataBar" priority="16">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="num" val="1"/>
@@ -3994,7 +4008,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:D31">
-    <cfRule type="dataBar" priority="7">
+    <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="num" val="1"/>
@@ -4008,7 +4022,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7:E14">
-    <cfRule type="dataBar" priority="10">
+    <cfRule type="dataBar" priority="12">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="num" val="1"/>
@@ -4022,7 +4036,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16:E22">
-    <cfRule type="dataBar" priority="15">
+    <cfRule type="dataBar" priority="17">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="num" val="1"/>
@@ -4036,7 +4050,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24:E31">
-    <cfRule type="dataBar" priority="6">
+    <cfRule type="dataBar" priority="8">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="num" val="1"/>
@@ -4050,7 +4064,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7:F14">
-    <cfRule type="dataBar" priority="3">
+    <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="num" val="1"/>
@@ -4064,7 +4078,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16:F22">
-    <cfRule type="dataBar" priority="16">
+    <cfRule type="dataBar" priority="18">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="num" val="1"/>
@@ -4078,7 +4092,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24:F31">
-    <cfRule type="dataBar" priority="1">
+    <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="num" val="1"/>
@@ -4087,6 +4101,34 @@
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{8182E0DE-79F3-4EF2-8560-7FFFB5758718}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7:D14">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{801CDEAF-68D6-4AD9-8CF3-FD775C6D87F4}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16:D21">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{B9EE4543-4E37-4B3A-A29B-E9D529A3807A}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4141,21 +4183,6 @@
           <xm:sqref>C24:C31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{A19B4C56-DD82-4020-AB78-A1EA9ED5C25B}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D7:D14</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{EDC25928-7935-4D5D-AEDA-5B5846D585CF}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
@@ -4168,7 +4195,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D16:D22</xm:sqref>
+          <xm:sqref>D22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{C4883859-0A5A-4AB2-B3E1-9ECAC2BDC385}">
@@ -4275,6 +4302,36 @@
           </x14:cfRule>
           <xm:sqref>F24:F31</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{801CDEAF-68D6-4AD9-8CF3-FD775C6D87F4}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D7:D14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{B9EE4543-4E37-4B3A-A29B-E9D529A3807A}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D16:D21</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
@@ -4283,10 +4340,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18338F37-384A-44D5-99F6-409C4E0A324F}">
-  <dimension ref="B2:AB27"/>
+  <dimension ref="B2:AB26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <pane xSplit="3" ySplit="7" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4303,7 +4363,7 @@
     <col min="14" max="14" width="2.7109375" style="6" customWidth="1"/>
     <col min="15" max="15" width="9.140625" style="6"/>
     <col min="16" max="16" width="6.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.28515625" style="69" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.28515625" style="67" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="2.28515625" style="6" customWidth="1"/>
     <col min="19" max="19" width="8.28515625" style="6" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="6.5703125" style="6" bestFit="1" customWidth="1"/>
@@ -4493,7 +4553,7 @@
         <v>14</v>
       </c>
       <c r="Q7" s="63" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="S7" s="11" t="s">
         <v>18</v>
@@ -4502,7 +4562,7 @@
         <v>14</v>
       </c>
       <c r="U7" s="11" t="s">
-        <v>17</v>
+        <v>103</v>
       </c>
       <c r="W7" s="15" t="s">
         <v>91</v>
@@ -4524,15 +4584,15 @@
       <c r="B8" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C8" s="122"/>
-      <c r="D8" s="123"/>
-      <c r="E8" s="123"/>
-      <c r="F8" s="123"/>
-      <c r="G8" s="123"/>
-      <c r="H8" s="123"/>
-      <c r="I8" s="123"/>
-      <c r="J8" s="124"/>
-      <c r="K8" s="124"/>
+      <c r="C8" s="120"/>
+      <c r="D8" s="121"/>
+      <c r="E8" s="121"/>
+      <c r="F8" s="121"/>
+      <c r="G8" s="121"/>
+      <c r="H8" s="121"/>
+      <c r="I8" s="121"/>
+      <c r="J8" s="122"/>
+      <c r="K8" s="122"/>
       <c r="L8" s="48"/>
       <c r="M8" s="48"/>
       <c r="N8" s="48"/>
@@ -4544,7 +4604,7 @@
       <c r="T8" s="49"/>
       <c r="U8" s="40"/>
       <c r="V8" s="51"/>
-      <c r="W8" s="126"/>
+      <c r="W8" s="124"/>
       <c r="X8" s="50"/>
       <c r="Y8" s="49"/>
       <c r="Z8" s="49"/>
@@ -4556,28 +4616,36 @@
       <c r="C9" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D9" s="123"/>
-      <c r="E9" s="123"/>
-      <c r="F9" s="123"/>
-      <c r="G9" s="123"/>
-      <c r="H9" s="123"/>
-      <c r="I9" s="123"/>
-      <c r="J9" s="124"/>
-      <c r="K9" s="124"/>
+      <c r="D9" s="121"/>
+      <c r="E9" s="121"/>
+      <c r="F9" s="121"/>
+      <c r="G9" s="121"/>
+      <c r="H9" s="121"/>
+      <c r="I9" s="121"/>
+      <c r="J9" s="122"/>
+      <c r="K9" s="122"/>
       <c r="L9" s="48"/>
       <c r="M9" s="48"/>
       <c r="N9" s="48"/>
-      <c r="O9" s="49"/>
+      <c r="O9" s="49">
+        <v>44</v>
+      </c>
       <c r="P9" s="49">
         <v>179</v>
       </c>
-      <c r="Q9" s="65"/>
+      <c r="Q9" s="65">
+        <f>IF(O9&gt;0,O9-P9,0)</f>
+        <v>-135</v>
+      </c>
       <c r="R9" s="50"/>
       <c r="S9" s="49"/>
       <c r="T9" s="49"/>
-      <c r="U9" s="40"/>
+      <c r="U9" s="65">
+        <f>IF(S9&gt;0,S9-T9,0)</f>
+        <v>0</v>
+      </c>
       <c r="V9" s="51"/>
-      <c r="W9" s="126">
+      <c r="W9" s="124">
         <f>D9+E9+F9+G9+H9+I9+J9+K9+L9+M9+P9+T9</f>
         <v>179</v>
       </c>
@@ -4591,28 +4659,34 @@
       <c r="B10" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C10" s="122"/>
-      <c r="D10" s="123"/>
-      <c r="E10" s="123"/>
-      <c r="F10" s="123"/>
-      <c r="G10" s="123"/>
-      <c r="H10" s="123"/>
-      <c r="I10" s="123"/>
-      <c r="J10" s="124"/>
-      <c r="K10" s="124"/>
+      <c r="C10" s="120"/>
+      <c r="D10" s="121"/>
+      <c r="E10" s="121"/>
+      <c r="F10" s="121"/>
+      <c r="G10" s="121"/>
+      <c r="H10" s="121"/>
+      <c r="I10" s="121"/>
+      <c r="J10" s="122"/>
+      <c r="K10" s="122"/>
       <c r="L10" s="48"/>
       <c r="M10" s="48"/>
       <c r="N10" s="48"/>
       <c r="O10" s="49"/>
       <c r="P10" s="49"/>
-      <c r="Q10" s="65"/>
+      <c r="Q10" s="65">
+        <f t="shared" ref="Q10:Q24" si="0">IF(O10&gt;0,O10-P10,0)</f>
+        <v>0</v>
+      </c>
       <c r="R10" s="50"/>
       <c r="S10" s="49"/>
       <c r="T10" s="49"/>
-      <c r="U10" s="40"/>
+      <c r="U10" s="65">
+        <f t="shared" ref="U10:U23" si="1">IF(S10&gt;0,S10-T10,0)</f>
+        <v>0</v>
+      </c>
       <c r="V10" s="51"/>
-      <c r="W10" s="126">
-        <f t="shared" ref="W10:W25" si="0">D10+E10+F10+G10+H10+I10+J10+K10+L10+M10+P10+T10</f>
+      <c r="W10" s="124">
+        <f t="shared" ref="W10:W24" si="2">D10+E10+F10+G10+H10+I10+J10+K10+L10+M10+P10+T10</f>
         <v>0</v>
       </c>
       <c r="X10" s="50"/>
@@ -4626,31 +4700,37 @@
       <c r="C11" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D11" s="123"/>
-      <c r="E11" s="123"/>
-      <c r="F11" s="123"/>
-      <c r="G11" s="123">
+      <c r="D11" s="121"/>
+      <c r="E11" s="121"/>
+      <c r="F11" s="121"/>
+      <c r="G11" s="121">
         <v>0.3</v>
       </c>
-      <c r="H11" s="123"/>
-      <c r="I11" s="123"/>
-      <c r="J11" s="124">
+      <c r="H11" s="121"/>
+      <c r="I11" s="121"/>
+      <c r="J11" s="122">
         <v>1</v>
       </c>
-      <c r="K11" s="124"/>
+      <c r="K11" s="122"/>
       <c r="L11" s="48"/>
       <c r="M11" s="48"/>
       <c r="N11" s="48"/>
       <c r="O11" s="49"/>
       <c r="P11" s="49"/>
-      <c r="Q11" s="65"/>
+      <c r="Q11" s="65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="R11" s="50"/>
       <c r="S11" s="49"/>
       <c r="T11" s="49"/>
-      <c r="U11" s="40"/>
+      <c r="U11" s="65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="V11" s="51"/>
-      <c r="W11" s="126">
-        <f t="shared" si="0"/>
+      <c r="W11" s="124">
+        <f t="shared" si="2"/>
         <v>1.3</v>
       </c>
       <c r="X11" s="50"/>
@@ -4664,14 +4744,14 @@
       <c r="C12" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D12" s="123"/>
-      <c r="E12" s="123"/>
-      <c r="F12" s="123"/>
-      <c r="G12" s="123"/>
-      <c r="H12" s="123"/>
-      <c r="I12" s="123"/>
-      <c r="J12" s="124"/>
-      <c r="K12" s="124"/>
+      <c r="D12" s="121"/>
+      <c r="E12" s="121"/>
+      <c r="F12" s="121"/>
+      <c r="G12" s="121"/>
+      <c r="H12" s="121"/>
+      <c r="I12" s="121"/>
+      <c r="J12" s="122"/>
+      <c r="K12" s="122"/>
       <c r="L12" s="48">
         <v>35</v>
       </c>
@@ -4679,14 +4759,20 @@
       <c r="N12" s="48"/>
       <c r="O12" s="49"/>
       <c r="P12" s="49"/>
-      <c r="Q12" s="65"/>
+      <c r="Q12" s="65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="R12" s="50"/>
       <c r="S12" s="49"/>
-      <c r="T12" s="125"/>
-      <c r="U12" s="40"/>
+      <c r="T12" s="123"/>
+      <c r="U12" s="65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="V12" s="51"/>
-      <c r="W12" s="126">
-        <f t="shared" si="0"/>
+      <c r="W12" s="124">
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="X12" s="50"/>
@@ -4700,35 +4786,43 @@
       <c r="C13" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D13" s="123"/>
-      <c r="E13" s="123"/>
-      <c r="F13" s="123">
+      <c r="D13" s="121"/>
+      <c r="E13" s="121"/>
+      <c r="F13" s="121">
         <v>1.75</v>
       </c>
-      <c r="G13" s="123"/>
-      <c r="H13" s="123">
+      <c r="G13" s="121"/>
+      <c r="H13" s="121">
         <v>2</v>
       </c>
-      <c r="I13" s="123"/>
-      <c r="J13" s="124"/>
-      <c r="K13" s="124">
+      <c r="I13" s="121"/>
+      <c r="J13" s="122"/>
+      <c r="K13" s="122">
         <v>4.75</v>
       </c>
       <c r="L13" s="48"/>
       <c r="M13" s="48"/>
       <c r="N13" s="48"/>
-      <c r="O13" s="49"/>
-      <c r="P13" s="125">
+      <c r="O13" s="125">
+        <v>46</v>
+      </c>
+      <c r="P13" s="123">
         <v>38.5</v>
       </c>
-      <c r="Q13" s="65"/>
+      <c r="Q13" s="126">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
       <c r="R13" s="50"/>
       <c r="S13" s="49"/>
-      <c r="T13" s="125"/>
-      <c r="U13" s="40"/>
+      <c r="T13" s="123"/>
+      <c r="U13" s="65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="V13" s="51"/>
-      <c r="W13" s="126">
-        <f t="shared" si="0"/>
+      <c r="W13" s="124">
+        <f t="shared" si="2"/>
         <v>47</v>
       </c>
       <c r="X13" s="50"/>
@@ -4742,31 +4836,39 @@
       <c r="C14" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D14" s="123"/>
-      <c r="E14" s="123"/>
-      <c r="F14" s="123"/>
-      <c r="G14" s="123"/>
-      <c r="H14" s="123"/>
-      <c r="I14" s="123"/>
-      <c r="J14" s="124"/>
-      <c r="K14" s="124"/>
+      <c r="D14" s="121"/>
+      <c r="E14" s="121"/>
+      <c r="F14" s="121"/>
+      <c r="G14" s="121"/>
+      <c r="H14" s="121"/>
+      <c r="I14" s="121"/>
+      <c r="J14" s="122"/>
+      <c r="K14" s="122"/>
       <c r="L14" s="48"/>
       <c r="M14" s="48"/>
       <c r="N14" s="48"/>
-      <c r="O14" s="49"/>
-      <c r="P14" s="125">
+      <c r="O14" s="123">
+        <v>38</v>
+      </c>
+      <c r="P14" s="123">
         <v>65</v>
       </c>
-      <c r="Q14" s="65"/>
+      <c r="Q14" s="126">
+        <f t="shared" si="0"/>
+        <v>-27</v>
+      </c>
       <c r="R14" s="50"/>
       <c r="S14" s="49"/>
-      <c r="T14" s="125">
+      <c r="T14" s="123">
         <v>43</v>
       </c>
-      <c r="U14" s="40"/>
+      <c r="U14" s="65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="V14" s="51"/>
-      <c r="W14" s="126">
-        <f t="shared" si="0"/>
+      <c r="W14" s="124">
+        <f t="shared" si="2"/>
         <v>108</v>
       </c>
       <c r="X14" s="50"/>
@@ -4780,29 +4882,37 @@
       <c r="C15" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D15" s="123"/>
-      <c r="E15" s="123"/>
-      <c r="F15" s="123"/>
-      <c r="G15" s="123"/>
-      <c r="H15" s="123"/>
-      <c r="I15" s="123"/>
-      <c r="J15" s="124"/>
-      <c r="K15" s="124"/>
+      <c r="D15" s="121"/>
+      <c r="E15" s="121"/>
+      <c r="F15" s="121"/>
+      <c r="G15" s="121"/>
+      <c r="H15" s="121"/>
+      <c r="I15" s="121"/>
+      <c r="J15" s="122"/>
+      <c r="K15" s="122"/>
       <c r="L15" s="48"/>
       <c r="M15" s="48"/>
       <c r="N15" s="48"/>
-      <c r="O15" s="49"/>
-      <c r="P15" s="125">
+      <c r="O15" s="123">
+        <v>36</v>
+      </c>
+      <c r="P15" s="123">
         <v>24</v>
       </c>
-      <c r="Q15" s="65"/>
+      <c r="Q15" s="126">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
       <c r="R15" s="50"/>
       <c r="S15" s="49"/>
-      <c r="T15" s="125"/>
-      <c r="U15" s="40"/>
+      <c r="T15" s="123"/>
+      <c r="U15" s="65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="V15" s="51"/>
-      <c r="W15" s="126">
-        <f t="shared" si="0"/>
+      <c r="W15" s="124">
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="X15" s="50"/>
@@ -4816,31 +4926,39 @@
       <c r="C16" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D16" s="123"/>
-      <c r="E16" s="123"/>
-      <c r="F16" s="123"/>
-      <c r="G16" s="123"/>
-      <c r="H16" s="123"/>
-      <c r="I16" s="123"/>
-      <c r="J16" s="124"/>
-      <c r="K16" s="124">
+      <c r="D16" s="121"/>
+      <c r="E16" s="121"/>
+      <c r="F16" s="121"/>
+      <c r="G16" s="121"/>
+      <c r="H16" s="121"/>
+      <c r="I16" s="121"/>
+      <c r="J16" s="122"/>
+      <c r="K16" s="122">
         <v>3.5</v>
       </c>
       <c r="L16" s="48"/>
       <c r="M16" s="48"/>
       <c r="N16" s="48"/>
-      <c r="O16" s="49"/>
-      <c r="P16" s="125">
+      <c r="O16" s="123">
+        <v>38</v>
+      </c>
+      <c r="P16" s="123">
         <v>13</v>
       </c>
-      <c r="Q16" s="65"/>
+      <c r="Q16" s="126">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
       <c r="R16" s="50"/>
       <c r="S16" s="49"/>
-      <c r="T16" s="125"/>
-      <c r="U16" s="40"/>
+      <c r="T16" s="123"/>
+      <c r="U16" s="65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="V16" s="51"/>
-      <c r="W16" s="126">
-        <f t="shared" si="0"/>
+      <c r="W16" s="124">
+        <f t="shared" si="2"/>
         <v>16.5</v>
       </c>
       <c r="X16" s="50"/>
@@ -4853,28 +4971,34 @@
       <c r="B17" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C17" s="122"/>
-      <c r="D17" s="123"/>
-      <c r="E17" s="123"/>
-      <c r="F17" s="123"/>
-      <c r="G17" s="123"/>
-      <c r="H17" s="123"/>
-      <c r="I17" s="123"/>
-      <c r="J17" s="124"/>
-      <c r="K17" s="124"/>
+      <c r="C17" s="120"/>
+      <c r="D17" s="121"/>
+      <c r="E17" s="121"/>
+      <c r="F17" s="121"/>
+      <c r="G17" s="121"/>
+      <c r="H17" s="121"/>
+      <c r="I17" s="121"/>
+      <c r="J17" s="122"/>
+      <c r="K17" s="122"/>
       <c r="L17" s="48"/>
       <c r="M17" s="48"/>
       <c r="N17" s="48"/>
-      <c r="O17" s="49"/>
-      <c r="P17" s="125"/>
-      <c r="Q17" s="65"/>
+      <c r="O17" s="123"/>
+      <c r="P17" s="123"/>
+      <c r="Q17" s="126">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="R17" s="50"/>
       <c r="S17" s="49"/>
-      <c r="T17" s="125"/>
-      <c r="U17" s="40"/>
+      <c r="T17" s="123"/>
+      <c r="U17" s="65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="V17" s="51"/>
-      <c r="W17" s="126">
-        <f t="shared" si="0"/>
+      <c r="W17" s="124">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="X17" s="50"/>
@@ -4888,29 +5012,35 @@
       <c r="C18" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D18" s="123"/>
-      <c r="E18" s="123"/>
-      <c r="F18" s="123">
+      <c r="D18" s="121"/>
+      <c r="E18" s="121"/>
+      <c r="F18" s="121">
         <v>2</v>
       </c>
-      <c r="G18" s="123"/>
-      <c r="H18" s="123"/>
-      <c r="I18" s="123"/>
-      <c r="J18" s="124"/>
-      <c r="K18" s="124"/>
+      <c r="G18" s="121"/>
+      <c r="H18" s="121"/>
+      <c r="I18" s="121"/>
+      <c r="J18" s="122"/>
+      <c r="K18" s="122"/>
       <c r="L18" s="48"/>
       <c r="M18" s="48"/>
       <c r="N18" s="48"/>
-      <c r="O18" s="49"/>
-      <c r="P18" s="125"/>
-      <c r="Q18" s="65"/>
+      <c r="O18" s="123"/>
+      <c r="P18" s="123"/>
+      <c r="Q18" s="126">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="R18" s="50"/>
       <c r="S18" s="49"/>
-      <c r="T18" s="125"/>
-      <c r="U18" s="40"/>
+      <c r="T18" s="123"/>
+      <c r="U18" s="65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="V18" s="51"/>
-      <c r="W18" s="126">
-        <f t="shared" si="0"/>
+      <c r="W18" s="124">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="X18" s="50"/>
@@ -4924,29 +5054,35 @@
       <c r="C19" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D19" s="123"/>
-      <c r="E19" s="123"/>
-      <c r="F19" s="123"/>
-      <c r="G19" s="123"/>
-      <c r="H19" s="123"/>
-      <c r="I19" s="123"/>
-      <c r="J19" s="124"/>
-      <c r="K19" s="124"/>
+      <c r="D19" s="121"/>
+      <c r="E19" s="121"/>
+      <c r="F19" s="121"/>
+      <c r="G19" s="121"/>
+      <c r="H19" s="121"/>
+      <c r="I19" s="121"/>
+      <c r="J19" s="122"/>
+      <c r="K19" s="122"/>
       <c r="L19" s="48"/>
       <c r="M19" s="48"/>
       <c r="N19" s="48"/>
-      <c r="O19" s="49"/>
-      <c r="P19" s="125"/>
-      <c r="Q19" s="65"/>
+      <c r="O19" s="123"/>
+      <c r="P19" s="123"/>
+      <c r="Q19" s="126">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="R19" s="50"/>
       <c r="S19" s="49"/>
-      <c r="T19" s="125">
+      <c r="T19" s="123">
         <v>44</v>
       </c>
-      <c r="U19" s="40"/>
+      <c r="U19" s="65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="V19" s="51"/>
-      <c r="W19" s="126">
-        <f t="shared" si="0"/>
+      <c r="W19" s="124">
+        <f t="shared" si="2"/>
         <v>44</v>
       </c>
       <c r="X19" s="50"/>
@@ -4955,67 +5091,81 @@
       <c r="AA19" s="49"/>
       <c r="AB19" s="52"/>
     </row>
-    <row r="20" spans="2:28" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="47"/>
-      <c r="C20" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D20" s="123"/>
-      <c r="E20" s="123"/>
-      <c r="F20" s="123"/>
-      <c r="G20" s="123"/>
-      <c r="H20" s="123"/>
-      <c r="I20" s="123"/>
-      <c r="J20" s="124"/>
-      <c r="K20" s="124"/>
-      <c r="L20" s="48"/>
-      <c r="M20" s="48"/>
-      <c r="N20" s="48"/>
-      <c r="O20" s="49"/>
-      <c r="P20" s="125"/>
-      <c r="Q20" s="65"/>
-      <c r="R20" s="50"/>
-      <c r="S20" s="49"/>
-      <c r="T20" s="125"/>
-      <c r="U20" s="40"/>
-      <c r="V20" s="51"/>
-      <c r="W20" s="126">
+    <row r="20" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="121"/>
+      <c r="E20" s="121"/>
+      <c r="F20" s="121"/>
+      <c r="G20" s="121"/>
+      <c r="H20" s="121"/>
+      <c r="I20" s="121"/>
+      <c r="J20" s="122"/>
+      <c r="K20" s="122"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="123"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="126">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X20" s="50"/>
-      <c r="Y20" s="49"/>
-      <c r="Z20" s="49"/>
-      <c r="AA20" s="49"/>
-      <c r="AB20" s="52"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="123"/>
+      <c r="U20" s="65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V20" s="2"/>
+      <c r="W20" s="124">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="2"/>
+      <c r="AB20" s="8"/>
     </row>
     <row r="21" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="123"/>
-      <c r="E21" s="123"/>
-      <c r="F21" s="123"/>
-      <c r="G21" s="123"/>
-      <c r="H21" s="123"/>
-      <c r="I21" s="123"/>
-      <c r="J21" s="124"/>
-      <c r="K21" s="124"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D21" s="121"/>
+      <c r="E21" s="121">
+        <v>5.5</v>
+      </c>
+      <c r="F21" s="121"/>
+      <c r="G21" s="121"/>
+      <c r="H21" s="121"/>
+      <c r="I21" s="121"/>
+      <c r="J21" s="122"/>
+      <c r="K21" s="122"/>
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
-      <c r="O21" s="2"/>
+      <c r="O21" s="123"/>
       <c r="P21" s="2"/>
-      <c r="Q21" s="64"/>
+      <c r="Q21" s="126">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="R21" s="2"/>
       <c r="S21" s="2"/>
-      <c r="T21" s="125"/>
-      <c r="U21" s="16"/>
+      <c r="T21" s="123"/>
+      <c r="U21" s="65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="V21" s="2"/>
-      <c r="W21" s="126">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="W21" s="124">
+        <f t="shared" si="2"/>
+        <v>5.5</v>
       </c>
       <c r="X21" s="2"/>
       <c r="Y21" s="2"/>
@@ -5026,35 +5176,38 @@
     <row r="22" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D22" s="123"/>
-      <c r="E22" s="123">
-        <v>5.5</v>
-      </c>
-      <c r="F22" s="123"/>
-      <c r="G22" s="123"/>
-      <c r="H22" s="123"/>
-      <c r="I22" s="123"/>
-      <c r="J22" s="124"/>
-      <c r="K22" s="124"/>
+        <v>120</v>
+      </c>
+      <c r="D22" s="121"/>
+      <c r="E22" s="121"/>
+      <c r="F22" s="121">
+        <v>5.15</v>
+      </c>
+      <c r="G22" s="121"/>
+      <c r="H22" s="121"/>
+      <c r="I22" s="121"/>
+      <c r="J22" s="122"/>
+      <c r="K22" s="122"/>
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
-      <c r="Q22" s="66">
-        <f t="shared" ref="Q22" si="1">IF(O22=0,0,(P22-O22)/O22)</f>
+      <c r="Q22" s="126">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R22" s="2"/>
       <c r="S22" s="2"/>
-      <c r="T22" s="125"/>
-      <c r="U22" s="16"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="V22" s="2"/>
-      <c r="W22" s="126">
-        <f t="shared" si="0"/>
-        <v>5.5</v>
+      <c r="W22" s="124">
+        <f t="shared" si="2"/>
+        <v>5.15</v>
       </c>
       <c r="X22" s="2"/>
       <c r="Y22" s="2"/>
@@ -5064,33 +5217,35 @@
     </row>
     <row r="23" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
-      <c r="C23" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D23" s="123"/>
-      <c r="E23" s="123"/>
-      <c r="F23" s="123">
-        <v>5.15</v>
-      </c>
-      <c r="G23" s="123"/>
-      <c r="H23" s="123"/>
-      <c r="I23" s="123"/>
-      <c r="J23" s="124"/>
-      <c r="K23" s="124"/>
-      <c r="L23" s="5"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="121"/>
+      <c r="E23" s="121"/>
+      <c r="F23" s="121"/>
+      <c r="G23" s="121"/>
+      <c r="H23" s="121"/>
+      <c r="I23" s="121"/>
+      <c r="J23" s="122"/>
+      <c r="K23" s="122"/>
+      <c r="L23" s="48"/>
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
-      <c r="Q23" s="64"/>
+      <c r="Q23" s="65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="R23" s="2"/>
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
-      <c r="U23" s="16"/>
+      <c r="U23" s="65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="V23" s="2"/>
-      <c r="W23" s="126">
-        <f t="shared" si="0"/>
-        <v>5.15</v>
+      <c r="W23" s="124">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="X23" s="2"/>
       <c r="Y23" s="2"/>
@@ -5101,147 +5256,118 @@
     <row r="24" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="123"/>
-      <c r="E24" s="123"/>
-      <c r="F24" s="123"/>
-      <c r="G24" s="123"/>
-      <c r="H24" s="123"/>
-      <c r="I24" s="123"/>
-      <c r="J24" s="124"/>
-      <c r="K24" s="124"/>
-      <c r="L24" s="48"/>
+      <c r="D24" s="121"/>
+      <c r="E24" s="121"/>
+      <c r="F24" s="121"/>
+      <c r="G24" s="121"/>
+      <c r="H24" s="121"/>
+      <c r="I24" s="121"/>
+      <c r="J24" s="122"/>
+      <c r="K24" s="122"/>
+      <c r="L24" s="5"/>
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
-      <c r="Q24" s="66"/>
+      <c r="Q24" s="65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="R24" s="2"/>
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
-      <c r="U24" s="16"/>
+      <c r="U24" s="2"/>
       <c r="V24" s="2"/>
-      <c r="W24" s="126">
-        <f t="shared" si="0"/>
+      <c r="W24" s="124">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="X24" s="2"/>
       <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
       <c r="AA24" s="2"/>
-      <c r="AB24" s="8"/>
-    </row>
-    <row r="25" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="123"/>
-      <c r="E25" s="123"/>
-      <c r="F25" s="123"/>
-      <c r="G25" s="123"/>
-      <c r="H25" s="123"/>
-      <c r="I25" s="123"/>
-      <c r="J25" s="124"/>
-      <c r="K25" s="124"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="67"/>
-      <c r="R25" s="2"/>
-      <c r="S25" s="2"/>
-      <c r="T25" s="2"/>
-      <c r="U25" s="2"/>
-      <c r="V25" s="2"/>
-      <c r="W25" s="126">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="X25" s="2"/>
-      <c r="Y25" s="2"/>
-      <c r="Z25" s="2"/>
-      <c r="AA25" s="2"/>
-      <c r="AB25" s="18"/>
-    </row>
-    <row r="26" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="19" t="s">
+      <c r="AB24" s="18"/>
+    </row>
+    <row r="25" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="19"/>
-      <c r="D26" s="20">
-        <f>SUM(D8:D25)</f>
-        <v>0</v>
-      </c>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20">
-        <f>SUM(F8:F25)</f>
+      <c r="C25" s="19"/>
+      <c r="D25" s="20">
+        <f>SUM(D8:D24)</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20">
+        <f>SUM(F8:F24)</f>
         <v>8.9</v>
       </c>
-      <c r="G26" s="20">
-        <f>SUM(G8:G25)</f>
+      <c r="G25" s="20">
+        <f>SUM(G8:G24)</f>
         <v>0.3</v>
       </c>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20">
-        <f>SUM(I8:I25)</f>
-        <v>0</v>
-      </c>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="20">
-        <f>SUM(L8:L25)</f>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20">
+        <f>SUM(I8:I24)</f>
+        <v>0</v>
+      </c>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20">
+        <f>SUM(L8:L24)</f>
         <v>35</v>
       </c>
-      <c r="M26" s="20">
-        <f>SUM(M8:M25)</f>
-        <v>0</v>
-      </c>
-      <c r="N26" s="56"/>
-      <c r="O26" s="20">
-        <f>SUM(O8:O25)</f>
-        <v>0</v>
-      </c>
-      <c r="P26" s="20">
-        <f>SUM(P8:P25)</f>
+      <c r="M25" s="20">
+        <f>SUM(M8:M24)</f>
+        <v>0</v>
+      </c>
+      <c r="N25" s="56"/>
+      <c r="O25" s="20">
+        <f>SUM(O8:O24)</f>
+        <v>202</v>
+      </c>
+      <c r="P25" s="20">
+        <f>SUM(P8:P24)</f>
         <v>319.5</v>
       </c>
-      <c r="Q26" s="68">
-        <f>O26-P26</f>
-        <v>-319.5</v>
-      </c>
-      <c r="R26" s="20"/>
-      <c r="S26" s="20">
-        <f>SUM(S8:S25)</f>
-        <v>0</v>
-      </c>
-      <c r="T26" s="20">
-        <f>SUM(T8:T25)</f>
+      <c r="Q25" s="66">
+        <f>O25-P25</f>
+        <v>-117.5</v>
+      </c>
+      <c r="R25" s="20"/>
+      <c r="S25" s="20">
+        <f>SUM(S8:S24)</f>
+        <v>0</v>
+      </c>
+      <c r="T25" s="20">
+        <f>SUM(T8:T24)</f>
         <v>87</v>
       </c>
-      <c r="U26" s="21"/>
-      <c r="V26" s="20"/>
-      <c r="W26" s="35">
-        <f>SUM(W8:W25)</f>
+      <c r="U25" s="21"/>
+      <c r="V25" s="20"/>
+      <c r="W25" s="35">
+        <f>SUM(W8:W24)</f>
         <v>467.45</v>
       </c>
-      <c r="X26" s="20"/>
-      <c r="Y26" s="20">
-        <f>SUM(Y8:Y25)</f>
-        <v>0</v>
-      </c>
-      <c r="Z26" s="20">
-        <f>SUM(Z8:Z25)</f>
-        <v>0</v>
-      </c>
-      <c r="AA26" s="20">
-        <f>SUM(AA8:AA25)</f>
-        <v>0</v>
-      </c>
-      <c r="AB26" s="20">
-        <f>SUM(AB8:AB25)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:28" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="X25" s="20"/>
+      <c r="Y25" s="20">
+        <f>SUM(Y8:Y24)</f>
+        <v>0</v>
+      </c>
+      <c r="Z25" s="20">
+        <f>SUM(Z8:Z24)</f>
+        <v>0</v>
+      </c>
+      <c r="AA25" s="20">
+        <f>SUM(AA8:AA24)</f>
+        <v>0</v>
+      </c>
+      <c r="AB25" s="20">
+        <f>SUM(AB8:AB24)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:28" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="B2:AB2"/>
@@ -5254,7 +5380,7 @@
     <mergeCell ref="S6:U6"/>
     <mergeCell ref="Y6:AB6"/>
   </mergeCells>
-  <conditionalFormatting sqref="Y8:Y20">
+  <conditionalFormatting sqref="Y8:Y19">
     <cfRule type="expression" priority="2">
       <formula>Y8/$AB8</formula>
     </cfRule>
@@ -5284,13 +5410,13 @@
     <col min="14" max="14" width="2.140625" style="6" customWidth="1"/>
     <col min="15" max="15" width="9.140625" style="6"/>
     <col min="16" max="16" width="6.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.42578125" style="69" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.42578125" style="67" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="2.28515625" style="6" customWidth="1"/>
     <col min="19" max="19" width="8.28515625" style="6" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="6.5703125" style="6" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="8.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="1.7109375" style="6" customWidth="1"/>
-    <col min="23" max="23" width="9.7109375" style="121" customWidth="1"/>
+    <col min="23" max="23" width="9.7109375" style="119" customWidth="1"/>
     <col min="24" max="24" width="2.28515625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5375,11 +5501,11 @@
       <c r="W4" s="140"/>
       <c r="X4" s="140"/>
     </row>
-    <row r="6" spans="2:24" s="83" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B6" s="75" t="s">
+    <row r="6" spans="2:24" s="81" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B6" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="76" t="s">
+      <c r="C6" s="74" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="147" t="s">
@@ -5389,11 +5515,11 @@
       <c r="F6" s="148"/>
       <c r="G6" s="148"/>
       <c r="H6" s="149"/>
-      <c r="I6" s="78"/>
-      <c r="J6" s="78" t="s">
+      <c r="I6" s="76"/>
+      <c r="J6" s="76" t="s">
         <v>107</v>
       </c>
-      <c r="K6" s="78" t="s">
+      <c r="K6" s="76" t="s">
         <v>108</v>
       </c>
       <c r="L6" s="150" t="s">
@@ -5402,781 +5528,781 @@
       <c r="M6" s="152" t="s">
         <v>87</v>
       </c>
-      <c r="N6" s="79"/>
+      <c r="N6" s="77"/>
       <c r="O6" s="149" t="s">
         <v>16</v>
       </c>
       <c r="P6" s="154"/>
       <c r="Q6" s="154"/>
-      <c r="R6" s="81"/>
+      <c r="R6" s="79"/>
       <c r="S6" s="154" t="s">
         <v>19</v>
       </c>
       <c r="T6" s="154"/>
       <c r="U6" s="154"/>
-      <c r="V6" s="81"/>
-      <c r="W6" s="82" t="s">
+      <c r="V6" s="79"/>
+      <c r="W6" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="X6" s="81"/>
-    </row>
-    <row r="7" spans="2:24" s="83" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B7" s="84"/>
-      <c r="C7" s="85"/>
-      <c r="D7" s="86" t="s">
+      <c r="X6" s="79"/>
+    </row>
+    <row r="7" spans="2:24" s="81" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B7" s="82"/>
+      <c r="C7" s="83"/>
+      <c r="D7" s="84" t="s">
         <v>88</v>
       </c>
-      <c r="E7" s="86" t="s">
+      <c r="E7" s="84" t="s">
         <v>121</v>
       </c>
-      <c r="F7" s="86" t="s">
+      <c r="F7" s="84" t="s">
         <v>89</v>
       </c>
-      <c r="G7" s="86" t="s">
+      <c r="G7" s="84" t="s">
         <v>90</v>
       </c>
-      <c r="H7" s="86" t="s">
+      <c r="H7" s="84" t="s">
         <v>62</v>
       </c>
-      <c r="I7" s="86" t="s">
+      <c r="I7" s="84" t="s">
         <v>109</v>
       </c>
-      <c r="J7" s="86" t="s">
+      <c r="J7" s="84" t="s">
         <v>110</v>
       </c>
-      <c r="K7" s="86" t="s">
+      <c r="K7" s="84" t="s">
         <v>111</v>
       </c>
       <c r="L7" s="151"/>
       <c r="M7" s="153"/>
-      <c r="N7" s="79"/>
-      <c r="O7" s="77" t="s">
+      <c r="N7" s="77"/>
+      <c r="O7" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="P7" s="80" t="s">
+      <c r="P7" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="Q7" s="87" t="s">
+      <c r="Q7" s="85" t="s">
         <v>103</v>
       </c>
-      <c r="R7" s="81"/>
-      <c r="S7" s="80" t="s">
+      <c r="R7" s="79"/>
+      <c r="S7" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="T7" s="80" t="s">
+      <c r="T7" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="U7" s="80" t="s">
+      <c r="U7" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="V7" s="81"/>
-      <c r="W7" s="88" t="s">
+      <c r="V7" s="79"/>
+      <c r="W7" s="86" t="s">
         <v>112</v>
       </c>
-      <c r="X7" s="81"/>
-    </row>
-    <row r="8" spans="2:24" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X7" s="79"/>
+    </row>
+    <row r="8" spans="2:24" s="81" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C8" s="89"/>
-      <c r="D8" s="90"/>
-      <c r="E8" s="90"/>
-      <c r="F8" s="90"/>
-      <c r="G8" s="90"/>
-      <c r="H8" s="90"/>
-      <c r="I8" s="90"/>
-      <c r="J8" s="90"/>
-      <c r="K8" s="90"/>
-      <c r="L8" s="90"/>
-      <c r="M8" s="91"/>
-      <c r="N8" s="79"/>
-      <c r="O8" s="90"/>
-      <c r="P8" s="92"/>
-      <c r="Q8" s="93"/>
-      <c r="R8" s="81"/>
-      <c r="S8" s="92"/>
-      <c r="T8" s="92"/>
-      <c r="U8" s="94"/>
-      <c r="V8" s="81"/>
-      <c r="W8" s="95">
+      <c r="C8" s="87"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="88"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="88"/>
+      <c r="J8" s="88"/>
+      <c r="K8" s="88"/>
+      <c r="L8" s="88"/>
+      <c r="M8" s="89"/>
+      <c r="N8" s="77"/>
+      <c r="O8" s="88"/>
+      <c r="P8" s="90"/>
+      <c r="Q8" s="91"/>
+      <c r="R8" s="79"/>
+      <c r="S8" s="90"/>
+      <c r="T8" s="90"/>
+      <c r="U8" s="92"/>
+      <c r="V8" s="79"/>
+      <c r="W8" s="93">
         <f>D8+E8+F8+G8+H8+I8+J8+K8+L8+M8+P8+T8</f>
         <v>0</v>
       </c>
-      <c r="X8" s="81"/>
-    </row>
-    <row r="9" spans="2:24" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X8" s="79"/>
+    </row>
+    <row r="9" spans="2:24" s="81" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D9" s="96"/>
-      <c r="E9" s="96"/>
-      <c r="F9" s="96"/>
-      <c r="G9" s="96">
+      <c r="D9" s="94"/>
+      <c r="E9" s="94"/>
+      <c r="F9" s="94"/>
+      <c r="G9" s="94">
         <v>0.3</v>
       </c>
-      <c r="H9" s="97"/>
-      <c r="I9" s="96"/>
-      <c r="J9" s="98">
+      <c r="H9" s="95"/>
+      <c r="I9" s="94"/>
+      <c r="J9" s="96">
         <v>1</v>
       </c>
-      <c r="K9" s="98"/>
-      <c r="L9" s="90"/>
-      <c r="M9" s="91"/>
-      <c r="N9" s="79"/>
-      <c r="O9" s="90"/>
-      <c r="P9" s="92"/>
-      <c r="Q9" s="99">
+      <c r="K9" s="96"/>
+      <c r="L9" s="88"/>
+      <c r="M9" s="89"/>
+      <c r="N9" s="77"/>
+      <c r="O9" s="88"/>
+      <c r="P9" s="90"/>
+      <c r="Q9" s="97">
         <f>O9-P9</f>
         <v>0</v>
       </c>
-      <c r="R9" s="81"/>
-      <c r="S9" s="92"/>
-      <c r="T9" s="92"/>
-      <c r="U9" s="100">
+      <c r="R9" s="79"/>
+      <c r="S9" s="90"/>
+      <c r="T9" s="90"/>
+      <c r="U9" s="98">
         <f t="shared" ref="U9" si="0">IF(S9=0,0,(T9-S9)/S9)</f>
         <v>0</v>
       </c>
-      <c r="V9" s="101"/>
-      <c r="W9" s="95">
+      <c r="V9" s="99"/>
+      <c r="W9" s="93">
         <f t="shared" ref="W9:W26" si="1">D9+E9+F9+G9+H9+I9+J9+K9+L9+M9+P9+T9</f>
         <v>1.3</v>
       </c>
-      <c r="X9" s="81"/>
-    </row>
-    <row r="10" spans="2:24" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X9" s="79"/>
+    </row>
+    <row r="10" spans="2:24" s="81" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D10" s="96"/>
-      <c r="E10" s="96"/>
-      <c r="F10" s="96"/>
-      <c r="G10" s="96"/>
-      <c r="H10" s="97"/>
-      <c r="I10" s="96"/>
-      <c r="J10" s="98"/>
-      <c r="K10" s="98"/>
-      <c r="L10" s="90"/>
-      <c r="M10" s="91"/>
-      <c r="N10" s="79"/>
-      <c r="O10" s="90"/>
-      <c r="P10" s="92"/>
-      <c r="Q10" s="99"/>
-      <c r="R10" s="81"/>
-      <c r="S10" s="92"/>
-      <c r="T10" s="92"/>
-      <c r="U10" s="100"/>
-      <c r="V10" s="101"/>
-      <c r="W10" s="95">
+      <c r="D10" s="94"/>
+      <c r="E10" s="94"/>
+      <c r="F10" s="94"/>
+      <c r="G10" s="94"/>
+      <c r="H10" s="95"/>
+      <c r="I10" s="94"/>
+      <c r="J10" s="96"/>
+      <c r="K10" s="96"/>
+      <c r="L10" s="88"/>
+      <c r="M10" s="89"/>
+      <c r="N10" s="77"/>
+      <c r="O10" s="88"/>
+      <c r="P10" s="90"/>
+      <c r="Q10" s="97"/>
+      <c r="R10" s="79"/>
+      <c r="S10" s="90"/>
+      <c r="T10" s="90"/>
+      <c r="U10" s="98"/>
+      <c r="V10" s="99"/>
+      <c r="W10" s="93">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="X10" s="81"/>
-    </row>
-    <row r="11" spans="2:24" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X10" s="79"/>
+    </row>
+    <row r="11" spans="2:24" s="81" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D11" s="92"/>
-      <c r="E11" s="92"/>
-      <c r="F11" s="92">
+      <c r="D11" s="90"/>
+      <c r="E11" s="90"/>
+      <c r="F11" s="90">
         <v>1.75</v>
       </c>
-      <c r="G11" s="92"/>
-      <c r="H11" s="102"/>
-      <c r="I11" s="92"/>
-      <c r="J11" s="90"/>
-      <c r="K11" s="90">
+      <c r="G11" s="90"/>
+      <c r="H11" s="100"/>
+      <c r="I11" s="90"/>
+      <c r="J11" s="88"/>
+      <c r="K11" s="88">
         <v>4.75</v>
       </c>
-      <c r="L11" s="92"/>
-      <c r="M11" s="102">
+      <c r="L11" s="90"/>
+      <c r="M11" s="100">
         <v>2</v>
       </c>
-      <c r="N11" s="79"/>
-      <c r="O11" s="90"/>
-      <c r="P11" s="92">
+      <c r="N11" s="77"/>
+      <c r="O11" s="88"/>
+      <c r="P11" s="90">
         <v>38.5</v>
       </c>
-      <c r="Q11" s="93"/>
-      <c r="R11" s="92"/>
-      <c r="S11" s="92"/>
-      <c r="T11" s="92"/>
-      <c r="U11" s="100"/>
-      <c r="V11" s="90"/>
-      <c r="W11" s="95">
+      <c r="Q11" s="91"/>
+      <c r="R11" s="90"/>
+      <c r="S11" s="90"/>
+      <c r="T11" s="90"/>
+      <c r="U11" s="98"/>
+      <c r="V11" s="88"/>
+      <c r="W11" s="93">
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="X11" s="92"/>
-    </row>
-    <row r="12" spans="2:24" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X11" s="90"/>
+    </row>
+    <row r="12" spans="2:24" s="81" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D12" s="92"/>
-      <c r="E12" s="92"/>
-      <c r="F12" s="92"/>
-      <c r="G12" s="92"/>
-      <c r="H12" s="102"/>
-      <c r="I12" s="92"/>
-      <c r="J12" s="90"/>
-      <c r="K12" s="90"/>
-      <c r="L12" s="92"/>
-      <c r="M12" s="102"/>
-      <c r="N12" s="79"/>
-      <c r="O12" s="90"/>
-      <c r="P12" s="92">
+      <c r="D12" s="90"/>
+      <c r="E12" s="90"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="90"/>
+      <c r="H12" s="100"/>
+      <c r="I12" s="90"/>
+      <c r="J12" s="88"/>
+      <c r="K12" s="88"/>
+      <c r="L12" s="90"/>
+      <c r="M12" s="100"/>
+      <c r="N12" s="77"/>
+      <c r="O12" s="88"/>
+      <c r="P12" s="90">
         <v>8</v>
       </c>
-      <c r="Q12" s="93"/>
-      <c r="R12" s="92"/>
-      <c r="S12" s="92"/>
-      <c r="T12" s="92">
+      <c r="Q12" s="91"/>
+      <c r="R12" s="90"/>
+      <c r="S12" s="90"/>
+      <c r="T12" s="90">
         <v>43</v>
       </c>
-      <c r="U12" s="100"/>
-      <c r="V12" s="90"/>
-      <c r="W12" s="95">
+      <c r="U12" s="98"/>
+      <c r="V12" s="88"/>
+      <c r="W12" s="93">
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
-      <c r="X12" s="92"/>
-    </row>
-    <row r="13" spans="2:24" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X12" s="90"/>
+    </row>
+    <row r="13" spans="2:24" s="81" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D13" s="92"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="92"/>
-      <c r="G13" s="92"/>
-      <c r="H13" s="102"/>
-      <c r="I13" s="92"/>
-      <c r="J13" s="90"/>
-      <c r="K13" s="90"/>
-      <c r="L13" s="92"/>
-      <c r="M13" s="102"/>
-      <c r="N13" s="79"/>
-      <c r="O13" s="90"/>
-      <c r="P13" s="92">
+      <c r="D13" s="90"/>
+      <c r="E13" s="90"/>
+      <c r="F13" s="90"/>
+      <c r="G13" s="90"/>
+      <c r="H13" s="100"/>
+      <c r="I13" s="90"/>
+      <c r="J13" s="88"/>
+      <c r="K13" s="88"/>
+      <c r="L13" s="90"/>
+      <c r="M13" s="100"/>
+      <c r="N13" s="77"/>
+      <c r="O13" s="88"/>
+      <c r="P13" s="90">
         <v>24</v>
       </c>
-      <c r="Q13" s="99">
+      <c r="Q13" s="97">
         <f t="shared" ref="Q13" si="2">IF(O13=0,0,(P13-O13)/O13)</f>
         <v>0</v>
       </c>
-      <c r="R13" s="92"/>
-      <c r="S13" s="92"/>
-      <c r="T13" s="92"/>
-      <c r="U13" s="100">
+      <c r="R13" s="90"/>
+      <c r="S13" s="90"/>
+      <c r="T13" s="90"/>
+      <c r="U13" s="98">
         <f t="shared" ref="U13" si="3">IF(S13=0,0,(T13-S13)/S13)</f>
         <v>0</v>
       </c>
-      <c r="V13" s="90"/>
-      <c r="W13" s="95">
+      <c r="V13" s="88"/>
+      <c r="W13" s="93">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="X13" s="92"/>
-    </row>
-    <row r="14" spans="2:24" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X13" s="90"/>
+    </row>
+    <row r="14" spans="2:24" s="81" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D14" s="103"/>
-      <c r="E14" s="103"/>
-      <c r="F14" s="103"/>
-      <c r="G14" s="103"/>
-      <c r="H14" s="104"/>
-      <c r="I14" s="92"/>
-      <c r="J14" s="105"/>
-      <c r="K14" s="105"/>
-      <c r="L14" s="103"/>
-      <c r="M14" s="104"/>
-      <c r="N14" s="79"/>
-      <c r="O14" s="105"/>
-      <c r="P14" s="103">
+      <c r="D14" s="101"/>
+      <c r="E14" s="101"/>
+      <c r="F14" s="101"/>
+      <c r="G14" s="101"/>
+      <c r="H14" s="102"/>
+      <c r="I14" s="90"/>
+      <c r="J14" s="103"/>
+      <c r="K14" s="103"/>
+      <c r="L14" s="101"/>
+      <c r="M14" s="102"/>
+      <c r="N14" s="77"/>
+      <c r="O14" s="103"/>
+      <c r="P14" s="101">
         <v>13</v>
       </c>
-      <c r="Q14" s="106"/>
-      <c r="R14" s="103"/>
-      <c r="S14" s="92"/>
-      <c r="T14" s="92">
+      <c r="Q14" s="104"/>
+      <c r="R14" s="101"/>
+      <c r="S14" s="90"/>
+      <c r="T14" s="90">
         <v>3.5</v>
       </c>
-      <c r="U14" s="100"/>
-      <c r="V14" s="105"/>
-      <c r="W14" s="95">
+      <c r="U14" s="98"/>
+      <c r="V14" s="103"/>
+      <c r="W14" s="93">
         <f t="shared" si="1"/>
         <v>16.5</v>
       </c>
-      <c r="X14" s="103"/>
-    </row>
-    <row r="15" spans="2:24" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X14" s="101"/>
+    </row>
+    <row r="15" spans="2:24" s="81" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>116</v>
       </c>
       <c r="C15" s="1"/>
-      <c r="D15" s="103"/>
-      <c r="E15" s="103"/>
-      <c r="F15" s="103"/>
-      <c r="G15" s="103"/>
-      <c r="H15" s="104"/>
-      <c r="I15" s="92"/>
-      <c r="J15" s="105"/>
-      <c r="K15" s="105"/>
-      <c r="L15" s="105"/>
-      <c r="M15" s="107"/>
-      <c r="N15" s="79"/>
-      <c r="O15" s="105"/>
-      <c r="P15" s="103"/>
-      <c r="Q15" s="106"/>
-      <c r="R15" s="81"/>
-      <c r="S15" s="92"/>
-      <c r="T15" s="92"/>
-      <c r="U15" s="100"/>
-      <c r="V15" s="81"/>
-      <c r="W15" s="95">
+      <c r="D15" s="101"/>
+      <c r="E15" s="101"/>
+      <c r="F15" s="101"/>
+      <c r="G15" s="101"/>
+      <c r="H15" s="102"/>
+      <c r="I15" s="90"/>
+      <c r="J15" s="103"/>
+      <c r="K15" s="103"/>
+      <c r="L15" s="103"/>
+      <c r="M15" s="105"/>
+      <c r="N15" s="77"/>
+      <c r="O15" s="103"/>
+      <c r="P15" s="101"/>
+      <c r="Q15" s="104"/>
+      <c r="R15" s="79"/>
+      <c r="S15" s="90"/>
+      <c r="T15" s="90"/>
+      <c r="U15" s="98"/>
+      <c r="V15" s="79"/>
+      <c r="W15" s="93">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="X15" s="81"/>
-    </row>
-    <row r="16" spans="2:24" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X15" s="79"/>
+    </row>
+    <row r="16" spans="2:24" s="81" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D16" s="103"/>
-      <c r="E16" s="103"/>
-      <c r="F16" s="103">
+      <c r="D16" s="101"/>
+      <c r="E16" s="101"/>
+      <c r="F16" s="101">
         <v>2</v>
       </c>
-      <c r="G16" s="103"/>
-      <c r="H16" s="103"/>
-      <c r="I16" s="105"/>
-      <c r="J16" s="105"/>
-      <c r="K16" s="105"/>
-      <c r="L16" s="105"/>
-      <c r="M16" s="107"/>
-      <c r="N16" s="79"/>
-      <c r="O16" s="105"/>
-      <c r="P16" s="103"/>
-      <c r="Q16" s="106"/>
-      <c r="R16" s="81"/>
-      <c r="S16" s="92"/>
-      <c r="T16" s="92"/>
-      <c r="U16" s="100"/>
-      <c r="V16" s="81"/>
-      <c r="W16" s="95">
+      <c r="G16" s="101"/>
+      <c r="H16" s="101"/>
+      <c r="I16" s="103"/>
+      <c r="J16" s="103"/>
+      <c r="K16" s="103"/>
+      <c r="L16" s="103"/>
+      <c r="M16" s="105"/>
+      <c r="N16" s="77"/>
+      <c r="O16" s="103"/>
+      <c r="P16" s="101"/>
+      <c r="Q16" s="104"/>
+      <c r="R16" s="79"/>
+      <c r="S16" s="90"/>
+      <c r="T16" s="90"/>
+      <c r="U16" s="98"/>
+      <c r="V16" s="79"/>
+      <c r="W16" s="93">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="X16" s="81"/>
-    </row>
-    <row r="17" spans="2:24" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X16" s="79"/>
+    </row>
+    <row r="17" spans="2:24" s="81" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C17" s="1"/>
-      <c r="D17" s="103"/>
-      <c r="E17" s="103"/>
-      <c r="F17" s="103"/>
-      <c r="G17" s="103"/>
-      <c r="H17" s="103"/>
-      <c r="I17" s="105"/>
-      <c r="J17" s="105"/>
-      <c r="K17" s="105"/>
-      <c r="L17" s="105"/>
-      <c r="M17" s="107"/>
-      <c r="N17" s="79"/>
-      <c r="O17" s="105"/>
-      <c r="P17" s="103"/>
-      <c r="Q17" s="106"/>
-      <c r="R17" s="81"/>
-      <c r="S17" s="92"/>
-      <c r="T17" s="92"/>
-      <c r="U17" s="100"/>
-      <c r="V17" s="81"/>
-      <c r="W17" s="95">
+      <c r="D17" s="101"/>
+      <c r="E17" s="101"/>
+      <c r="F17" s="101"/>
+      <c r="G17" s="101"/>
+      <c r="H17" s="101"/>
+      <c r="I17" s="103"/>
+      <c r="J17" s="103"/>
+      <c r="K17" s="103"/>
+      <c r="L17" s="103"/>
+      <c r="M17" s="105"/>
+      <c r="N17" s="77"/>
+      <c r="O17" s="103"/>
+      <c r="P17" s="101"/>
+      <c r="Q17" s="104"/>
+      <c r="R17" s="79"/>
+      <c r="S17" s="90"/>
+      <c r="T17" s="90"/>
+      <c r="U17" s="98"/>
+      <c r="V17" s="79"/>
+      <c r="W17" s="93">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="X17" s="81"/>
-    </row>
-    <row r="18" spans="2:24" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X17" s="79"/>
+    </row>
+    <row r="18" spans="2:24" s="81" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D18" s="103"/>
-      <c r="E18" s="103">
+      <c r="D18" s="101"/>
+      <c r="E18" s="101">
         <v>5.5</v>
       </c>
-      <c r="F18" s="103"/>
-      <c r="G18" s="103"/>
-      <c r="H18" s="103"/>
-      <c r="I18" s="105"/>
-      <c r="J18" s="105"/>
-      <c r="K18" s="105"/>
-      <c r="L18" s="105"/>
-      <c r="M18" s="107"/>
-      <c r="N18" s="79"/>
-      <c r="O18" s="105"/>
-      <c r="P18" s="103"/>
-      <c r="Q18" s="106"/>
-      <c r="R18" s="81"/>
-      <c r="S18" s="92"/>
-      <c r="T18" s="92"/>
-      <c r="U18" s="100"/>
-      <c r="V18" s="81"/>
-      <c r="W18" s="95">
+      <c r="F18" s="101"/>
+      <c r="G18" s="101"/>
+      <c r="H18" s="101"/>
+      <c r="I18" s="103"/>
+      <c r="J18" s="103"/>
+      <c r="K18" s="103"/>
+      <c r="L18" s="103"/>
+      <c r="M18" s="105"/>
+      <c r="N18" s="77"/>
+      <c r="O18" s="103"/>
+      <c r="P18" s="101"/>
+      <c r="Q18" s="104"/>
+      <c r="R18" s="79"/>
+      <c r="S18" s="90"/>
+      <c r="T18" s="90"/>
+      <c r="U18" s="98"/>
+      <c r="V18" s="79"/>
+      <c r="W18" s="93">
         <f t="shared" si="1"/>
         <v>5.5</v>
       </c>
-      <c r="X18" s="81"/>
-    </row>
-    <row r="19" spans="2:24" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X18" s="79"/>
+    </row>
+    <row r="19" spans="2:24" s="81" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D19" s="103"/>
-      <c r="E19" s="103"/>
-      <c r="F19" s="103">
+      <c r="D19" s="101"/>
+      <c r="E19" s="101"/>
+      <c r="F19" s="101">
         <v>5.15</v>
       </c>
-      <c r="G19" s="103"/>
-      <c r="H19" s="103"/>
-      <c r="I19" s="105"/>
-      <c r="J19" s="105"/>
-      <c r="K19" s="105"/>
-      <c r="L19" s="105"/>
-      <c r="M19" s="107"/>
-      <c r="N19" s="79"/>
-      <c r="O19" s="105"/>
-      <c r="P19" s="103"/>
-      <c r="Q19" s="106"/>
-      <c r="R19" s="81"/>
-      <c r="S19" s="92"/>
-      <c r="T19" s="92"/>
-      <c r="U19" s="100"/>
-      <c r="V19" s="81"/>
-      <c r="W19" s="95">
+      <c r="G19" s="101"/>
+      <c r="H19" s="101"/>
+      <c r="I19" s="103"/>
+      <c r="J19" s="103"/>
+      <c r="K19" s="103"/>
+      <c r="L19" s="103"/>
+      <c r="M19" s="105"/>
+      <c r="N19" s="77"/>
+      <c r="O19" s="103"/>
+      <c r="P19" s="101"/>
+      <c r="Q19" s="104"/>
+      <c r="R19" s="79"/>
+      <c r="S19" s="90"/>
+      <c r="T19" s="90"/>
+      <c r="U19" s="98"/>
+      <c r="V19" s="79"/>
+      <c r="W19" s="93">
         <f t="shared" si="1"/>
         <v>5.15</v>
       </c>
-      <c r="X19" s="81"/>
-    </row>
-    <row r="20" spans="2:24" s="83" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="89"/>
+      <c r="X19" s="79"/>
+    </row>
+    <row r="20" spans="2:24" s="81" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="87"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="103"/>
-      <c r="E20" s="103"/>
-      <c r="F20" s="103"/>
-      <c r="G20" s="103"/>
-      <c r="H20" s="103"/>
-      <c r="I20" s="105"/>
-      <c r="J20" s="105"/>
-      <c r="K20" s="105"/>
-      <c r="L20" s="105"/>
-      <c r="M20" s="107"/>
-      <c r="N20" s="79"/>
-      <c r="O20" s="105"/>
-      <c r="P20" s="103"/>
-      <c r="Q20" s="99">
+      <c r="D20" s="101"/>
+      <c r="E20" s="101"/>
+      <c r="F20" s="101"/>
+      <c r="G20" s="101"/>
+      <c r="H20" s="101"/>
+      <c r="I20" s="103"/>
+      <c r="J20" s="103"/>
+      <c r="K20" s="103"/>
+      <c r="L20" s="103"/>
+      <c r="M20" s="105"/>
+      <c r="N20" s="77"/>
+      <c r="O20" s="103"/>
+      <c r="P20" s="101"/>
+      <c r="Q20" s="97">
         <f>O20-P20</f>
         <v>0</v>
       </c>
-      <c r="R20" s="81"/>
-      <c r="S20" s="92"/>
-      <c r="T20" s="92"/>
-      <c r="U20" s="100"/>
-      <c r="V20" s="81"/>
-      <c r="W20" s="95">
+      <c r="R20" s="79"/>
+      <c r="S20" s="90"/>
+      <c r="T20" s="90"/>
+      <c r="U20" s="98"/>
+      <c r="V20" s="79"/>
+      <c r="W20" s="93">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="X20" s="81"/>
-    </row>
-    <row r="21" spans="2:24" s="83" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="89"/>
+      <c r="X20" s="79"/>
+    </row>
+    <row r="21" spans="2:24" s="81" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="87"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="103"/>
-      <c r="E21" s="103"/>
-      <c r="F21" s="103"/>
-      <c r="G21" s="103"/>
-      <c r="H21" s="103"/>
-      <c r="I21" s="105"/>
-      <c r="J21" s="105"/>
-      <c r="K21" s="105"/>
-      <c r="L21" s="105"/>
-      <c r="M21" s="107"/>
-      <c r="N21" s="79"/>
-      <c r="O21" s="105"/>
-      <c r="P21" s="103"/>
-      <c r="Q21" s="99">
+      <c r="D21" s="101"/>
+      <c r="E21" s="101"/>
+      <c r="F21" s="101"/>
+      <c r="G21" s="101"/>
+      <c r="H21" s="101"/>
+      <c r="I21" s="103"/>
+      <c r="J21" s="103"/>
+      <c r="K21" s="103"/>
+      <c r="L21" s="103"/>
+      <c r="M21" s="105"/>
+      <c r="N21" s="77"/>
+      <c r="O21" s="103"/>
+      <c r="P21" s="101"/>
+      <c r="Q21" s="97">
         <f>O21-P21</f>
         <v>0</v>
       </c>
-      <c r="R21" s="81"/>
-      <c r="S21" s="92"/>
-      <c r="T21" s="92"/>
-      <c r="U21" s="100"/>
-      <c r="V21" s="81"/>
-      <c r="W21" s="95">
+      <c r="R21" s="79"/>
+      <c r="S21" s="90"/>
+      <c r="T21" s="90"/>
+      <c r="U21" s="98"/>
+      <c r="V21" s="79"/>
+      <c r="W21" s="93">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="X21" s="81"/>
-    </row>
-    <row r="22" spans="2:24" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X21" s="79"/>
+    </row>
+    <row r="22" spans="2:24" s="81" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="103"/>
-      <c r="E22" s="103"/>
-      <c r="F22" s="103"/>
-      <c r="G22" s="103"/>
-      <c r="H22" s="103"/>
-      <c r="I22" s="105"/>
-      <c r="J22" s="105"/>
-      <c r="K22" s="105"/>
-      <c r="L22" s="105"/>
-      <c r="M22" s="107"/>
-      <c r="N22" s="79"/>
-      <c r="O22" s="105"/>
-      <c r="P22" s="103"/>
-      <c r="Q22" s="106"/>
-      <c r="R22" s="81"/>
-      <c r="S22" s="92"/>
-      <c r="T22" s="92"/>
-      <c r="U22" s="100"/>
-      <c r="V22" s="81"/>
-      <c r="W22" s="95">
+      <c r="D22" s="101"/>
+      <c r="E22" s="101"/>
+      <c r="F22" s="101"/>
+      <c r="G22" s="101"/>
+      <c r="H22" s="101"/>
+      <c r="I22" s="103"/>
+      <c r="J22" s="103"/>
+      <c r="K22" s="103"/>
+      <c r="L22" s="103"/>
+      <c r="M22" s="105"/>
+      <c r="N22" s="77"/>
+      <c r="O22" s="103"/>
+      <c r="P22" s="101"/>
+      <c r="Q22" s="104"/>
+      <c r="R22" s="79"/>
+      <c r="S22" s="90"/>
+      <c r="T22" s="90"/>
+      <c r="U22" s="98"/>
+      <c r="V22" s="79"/>
+      <c r="W22" s="93">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="X22" s="81"/>
-    </row>
-    <row r="23" spans="2:24" s="83" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="89"/>
+      <c r="X22" s="79"/>
+    </row>
+    <row r="23" spans="2:24" s="81" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="87"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="103"/>
-      <c r="E23" s="103"/>
-      <c r="F23" s="103"/>
-      <c r="G23" s="103"/>
-      <c r="H23" s="103"/>
-      <c r="I23" s="105"/>
-      <c r="J23" s="105"/>
-      <c r="K23" s="105"/>
-      <c r="L23" s="105"/>
-      <c r="M23" s="107"/>
-      <c r="N23" s="79"/>
-      <c r="O23" s="105"/>
-      <c r="P23" s="103"/>
-      <c r="Q23" s="106"/>
-      <c r="R23" s="81"/>
-      <c r="S23" s="92"/>
-      <c r="T23" s="92"/>
-      <c r="U23" s="100"/>
-      <c r="V23" s="81"/>
-      <c r="W23" s="95">
+      <c r="D23" s="101"/>
+      <c r="E23" s="101"/>
+      <c r="F23" s="101"/>
+      <c r="G23" s="101"/>
+      <c r="H23" s="101"/>
+      <c r="I23" s="103"/>
+      <c r="J23" s="103"/>
+      <c r="K23" s="103"/>
+      <c r="L23" s="103"/>
+      <c r="M23" s="105"/>
+      <c r="N23" s="77"/>
+      <c r="O23" s="103"/>
+      <c r="P23" s="101"/>
+      <c r="Q23" s="104"/>
+      <c r="R23" s="79"/>
+      <c r="S23" s="90"/>
+      <c r="T23" s="90"/>
+      <c r="U23" s="98"/>
+      <c r="V23" s="79"/>
+      <c r="W23" s="93">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="X23" s="81"/>
-    </row>
-    <row r="24" spans="2:24" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X23" s="79"/>
+    </row>
+    <row r="24" spans="2:24" s="81" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="103"/>
-      <c r="E24" s="103"/>
-      <c r="F24" s="103"/>
-      <c r="G24" s="103"/>
-      <c r="H24" s="103"/>
-      <c r="I24" s="105"/>
-      <c r="J24" s="105"/>
-      <c r="K24" s="105"/>
-      <c r="L24" s="105"/>
-      <c r="M24" s="107"/>
-      <c r="N24" s="79"/>
-      <c r="O24" s="105"/>
-      <c r="P24" s="103"/>
-      <c r="Q24" s="106"/>
-      <c r="R24" s="81"/>
-      <c r="S24" s="92"/>
-      <c r="T24" s="92"/>
-      <c r="U24" s="100"/>
-      <c r="V24" s="81"/>
-      <c r="W24" s="95">
+      <c r="D24" s="101"/>
+      <c r="E24" s="101"/>
+      <c r="F24" s="101"/>
+      <c r="G24" s="101"/>
+      <c r="H24" s="101"/>
+      <c r="I24" s="103"/>
+      <c r="J24" s="103"/>
+      <c r="K24" s="103"/>
+      <c r="L24" s="103"/>
+      <c r="M24" s="105"/>
+      <c r="N24" s="77"/>
+      <c r="O24" s="103"/>
+      <c r="P24" s="101"/>
+      <c r="Q24" s="104"/>
+      <c r="R24" s="79"/>
+      <c r="S24" s="90"/>
+      <c r="T24" s="90"/>
+      <c r="U24" s="98"/>
+      <c r="V24" s="79"/>
+      <c r="W24" s="93">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="X24" s="81"/>
-    </row>
-    <row r="25" spans="2:24" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X24" s="79"/>
+    </row>
+    <row r="25" spans="2:24" s="81" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
-      <c r="D25" s="103"/>
-      <c r="E25" s="103"/>
-      <c r="F25" s="103"/>
-      <c r="G25" s="103"/>
-      <c r="H25" s="103"/>
-      <c r="I25" s="105"/>
-      <c r="J25" s="105"/>
-      <c r="K25" s="105"/>
-      <c r="L25" s="105"/>
-      <c r="M25" s="107"/>
-      <c r="N25" s="79"/>
-      <c r="O25" s="105"/>
-      <c r="P25" s="103"/>
-      <c r="Q25" s="106"/>
-      <c r="R25" s="81"/>
-      <c r="S25" s="92"/>
-      <c r="T25" s="92"/>
-      <c r="U25" s="100"/>
-      <c r="V25" s="81"/>
-      <c r="W25" s="95">
+      <c r="D25" s="101"/>
+      <c r="E25" s="101"/>
+      <c r="F25" s="101"/>
+      <c r="G25" s="101"/>
+      <c r="H25" s="101"/>
+      <c r="I25" s="103"/>
+      <c r="J25" s="103"/>
+      <c r="K25" s="103"/>
+      <c r="L25" s="103"/>
+      <c r="M25" s="105"/>
+      <c r="N25" s="77"/>
+      <c r="O25" s="103"/>
+      <c r="P25" s="101"/>
+      <c r="Q25" s="104"/>
+      <c r="R25" s="79"/>
+      <c r="S25" s="90"/>
+      <c r="T25" s="90"/>
+      <c r="U25" s="98"/>
+      <c r="V25" s="79"/>
+      <c r="W25" s="93">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="X25" s="81"/>
-    </row>
-    <row r="26" spans="2:24" s="83" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B26" s="89"/>
-      <c r="C26" s="89"/>
-      <c r="D26" s="103"/>
-      <c r="E26" s="103"/>
-      <c r="F26" s="103"/>
-      <c r="G26" s="103"/>
-      <c r="H26" s="103"/>
-      <c r="I26" s="103"/>
-      <c r="J26" s="103"/>
-      <c r="K26" s="103"/>
-      <c r="L26" s="103"/>
-      <c r="M26" s="104"/>
-      <c r="N26" s="79"/>
-      <c r="O26" s="105"/>
-      <c r="P26" s="103"/>
-      <c r="Q26" s="106"/>
-      <c r="R26" s="103"/>
-      <c r="S26" s="92"/>
-      <c r="T26" s="92"/>
-      <c r="U26" s="100"/>
-      <c r="V26" s="105"/>
-      <c r="W26" s="95">
+      <c r="X25" s="79"/>
+    </row>
+    <row r="26" spans="2:24" s="81" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B26" s="87"/>
+      <c r="C26" s="87"/>
+      <c r="D26" s="101"/>
+      <c r="E26" s="101"/>
+      <c r="F26" s="101"/>
+      <c r="G26" s="101"/>
+      <c r="H26" s="101"/>
+      <c r="I26" s="101"/>
+      <c r="J26" s="101"/>
+      <c r="K26" s="101"/>
+      <c r="L26" s="101"/>
+      <c r="M26" s="102"/>
+      <c r="N26" s="77"/>
+      <c r="O26" s="103"/>
+      <c r="P26" s="101"/>
+      <c r="Q26" s="104"/>
+      <c r="R26" s="101"/>
+      <c r="S26" s="90"/>
+      <c r="T26" s="90"/>
+      <c r="U26" s="98"/>
+      <c r="V26" s="103"/>
+      <c r="W26" s="93">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="X26" s="108"/>
-    </row>
-    <row r="27" spans="2:24" s="83" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="109" t="s">
+      <c r="X26" s="106"/>
+    </row>
+    <row r="27" spans="2:24" s="81" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="107" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="110"/>
-      <c r="D27" s="111">
+      <c r="C27" s="108"/>
+      <c r="D27" s="109">
         <f t="shared" ref="D27:M27" si="4">SUM(D8:D26)</f>
         <v>0</v>
       </c>
-      <c r="E27" s="111">
+      <c r="E27" s="109">
         <f t="shared" si="4"/>
         <v>5.5</v>
       </c>
-      <c r="F27" s="111">
+      <c r="F27" s="109">
         <f t="shared" si="4"/>
         <v>8.9</v>
       </c>
-      <c r="G27" s="111">
+      <c r="G27" s="109">
         <f t="shared" si="4"/>
         <v>0.3</v>
       </c>
-      <c r="H27" s="111">
+      <c r="H27" s="109">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I27" s="111">
+      <c r="I27" s="109">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J27" s="111">
+      <c r="J27" s="109">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="K27" s="111">
+      <c r="K27" s="109">
         <f t="shared" si="4"/>
         <v>4.75</v>
       </c>
-      <c r="L27" s="111">
+      <c r="L27" s="109">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M27" s="112">
+      <c r="M27" s="110">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="N27" s="79"/>
-      <c r="O27" s="113">
+      <c r="N27" s="77"/>
+      <c r="O27" s="111">
         <f>SUM(O8:O26)</f>
         <v>0</v>
       </c>
-      <c r="P27" s="111">
+      <c r="P27" s="109">
         <f>SUM(P8:P26)</f>
         <v>83.5</v>
       </c>
-      <c r="Q27" s="114">
+      <c r="Q27" s="112">
         <f>SUM(Q8:Q26)</f>
         <v>0</v>
       </c>
-      <c r="R27" s="111"/>
-      <c r="S27" s="115">
+      <c r="R27" s="109"/>
+      <c r="S27" s="113">
         <f>SUM(S8:S26)</f>
         <v>0</v>
       </c>
-      <c r="T27" s="115">
+      <c r="T27" s="113">
         <f>SUM(T8:T26)</f>
         <v>46.5</v>
       </c>
-      <c r="U27" s="115">
+      <c r="U27" s="113">
         <f>SUM(U8:U26)</f>
         <v>0</v>
       </c>
-      <c r="V27" s="113"/>
-      <c r="W27" s="116">
+      <c r="V27" s="111"/>
+      <c r="W27" s="114">
         <f>SUM(W8:W26)</f>
         <v>152.45000000000002</v>
       </c>
-      <c r="X27" s="108"/>
-    </row>
-    <row r="28" spans="2:24" s="117" customFormat="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="D28" s="118"/>
-      <c r="E28" s="118"/>
-      <c r="F28" s="118"/>
-      <c r="G28" s="118"/>
-      <c r="H28" s="118"/>
-      <c r="I28" s="118"/>
-      <c r="J28" s="118"/>
-      <c r="K28" s="118"/>
-      <c r="L28" s="118"/>
-      <c r="M28" s="118"/>
-      <c r="N28" s="118"/>
-      <c r="O28" s="118"/>
-      <c r="P28" s="118"/>
-      <c r="Q28" s="119"/>
-      <c r="R28" s="118"/>
-      <c r="S28" s="118"/>
-      <c r="T28" s="118"/>
-      <c r="U28" s="118"/>
-      <c r="V28" s="118"/>
-      <c r="W28" s="120"/>
-      <c r="X28" s="118"/>
+      <c r="X27" s="106"/>
+    </row>
+    <row r="28" spans="2:24" s="115" customFormat="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="D28" s="116"/>
+      <c r="E28" s="116"/>
+      <c r="F28" s="116"/>
+      <c r="G28" s="116"/>
+      <c r="H28" s="116"/>
+      <c r="I28" s="116"/>
+      <c r="J28" s="116"/>
+      <c r="K28" s="116"/>
+      <c r="L28" s="116"/>
+      <c r="M28" s="116"/>
+      <c r="N28" s="116"/>
+      <c r="O28" s="116"/>
+      <c r="P28" s="116"/>
+      <c r="Q28" s="117"/>
+      <c r="R28" s="116"/>
+      <c r="S28" s="116"/>
+      <c r="T28" s="116"/>
+      <c r="U28" s="116"/>
+      <c r="V28" s="116"/>
+      <c r="W28" s="118"/>
+      <c r="X28" s="116"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -6711,7 +6837,7 @@
     <col min="16" max="16" width="6.5703125" style="6" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="8.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="1.7109375" style="6" customWidth="1"/>
-    <col min="19" max="19" width="9.7109375" style="69" customWidth="1"/>
+    <col min="19" max="19" width="9.7109375" style="67" customWidth="1"/>
     <col min="20" max="20" width="2.28515625" style="6" customWidth="1"/>
     <col min="21" max="21" width="8.42578125" style="6" customWidth="1"/>
     <col min="22" max="24" width="9.140625" style="6"/>
@@ -6834,7 +6960,7 @@
       </c>
       <c r="P6" s="146"/>
       <c r="Q6" s="146"/>
-      <c r="S6" s="71" t="s">
+      <c r="S6" s="69" t="s">
         <v>12</v>
       </c>
       <c r="U6" s="14"/>
@@ -6883,7 +7009,7 @@
       <c r="Q7" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="S7" s="72" t="s">
+      <c r="S7" s="70" t="s">
         <v>91</v>
       </c>
       <c r="U7" s="15" t="s">
@@ -6945,7 +7071,7 @@
       <c r="L9" s="2">
         <v>73</v>
       </c>
-      <c r="M9" s="70">
+      <c r="M9" s="68">
         <f>K9-L9</f>
         <v>-3</v>
       </c>
@@ -6955,7 +7081,7 @@
       </c>
       <c r="Q9" s="16"/>
       <c r="R9" s="7"/>
-      <c r="S9" s="73">
+      <c r="S9" s="71">
         <f t="shared" ref="S9:S14" si="0">D9+E9+F9+G9+I9+J9+L9+P9</f>
         <v>81</v>
       </c>
@@ -6988,7 +7114,7 @@
       </c>
       <c r="Q10" s="16"/>
       <c r="R10" s="7"/>
-      <c r="S10" s="73">
+      <c r="S10" s="71">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
@@ -7019,7 +7145,7 @@
       <c r="P11" s="2"/>
       <c r="Q11" s="16"/>
       <c r="R11" s="7"/>
-      <c r="S11" s="73">
+      <c r="S11" s="71">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
@@ -7047,7 +7173,7 @@
       </c>
       <c r="Q12" s="16"/>
       <c r="R12" s="7"/>
-      <c r="S12" s="73">
+      <c r="S12" s="71">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -7077,7 +7203,7 @@
       <c r="P13" s="2"/>
       <c r="Q13" s="16"/>
       <c r="R13" s="2"/>
-      <c r="S13" s="73">
+      <c r="S13" s="71">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -7110,7 +7236,7 @@
       </c>
       <c r="Q14" s="16"/>
       <c r="R14" s="2"/>
-      <c r="S14" s="73">
+      <c r="S14" s="71">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
@@ -7203,7 +7329,7 @@
         <v>0</v>
       </c>
       <c r="R16" s="20"/>
-      <c r="S16" s="74">
+      <c r="S16" s="72">
         <f>SUM(S8:S15)</f>
         <v>235</v>
       </c>

--- a/hiqu/HR/Performance Evaluation/November 2024/Dev/Fawad Ahmad.xlsx
+++ b/hiqu/HR/Performance Evaluation/November 2024/Dev/Fawad Ahmad.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docs\hiqu\HR\Performance Evaluation\November 2024\Dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F35FBA8-3128-4275-BB7E-4A521A56C718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81C92538-FEAC-4F47-A507-6A89C2B84FF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{C18F1D24-2B51-47D5-ADD3-847EF68750D1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{C18F1D24-2B51-47D5-ADD3-847EF68750D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Employee" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="130">
   <si>
     <t>Employee Name</t>
   </si>
@@ -410,6 +410,27 @@
   </si>
   <si>
     <t>Document</t>
+  </si>
+  <si>
+    <t>AI Usage</t>
+  </si>
+  <si>
+    <t>Backend Development</t>
+  </si>
+  <si>
+    <t>Review Spec</t>
+  </si>
+  <si>
+    <t>Controller</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Testing</t>
   </si>
 </sst>
 </file>
@@ -421,7 +442,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="#"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -542,6 +563,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -806,7 +833,7 @@
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="155">
+  <cellXfs count="163">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1216,6 +1243,22 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma" xfId="5" builtinId="3"/>
@@ -1225,7 +1268,18 @@
     <cellStyle name="Normal 3" xfId="4" xr:uid="{2701FF39-7653-422A-8590-37E5DFF3CAE0}"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -3226,7 +3280,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9386B91B-8D62-4F20-9CB7-F711303AA283}">
   <dimension ref="B2:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -3319,7 +3373,7 @@
       </c>
       <c r="C10" s="128">
         <f ca="1">(_xlfn.DAYS(TODAY(),C9)/365)</f>
-        <v>0.34246575342465752</v>
+        <v>0.36438356164383562</v>
       </c>
       <c r="D10" s="128"/>
       <c r="E10" s="128"/>
@@ -3989,6 +4043,34 @@
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{E0646212-DEFE-4F42-89BC-0A29A32B5665}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7:D14">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{801CDEAF-68D6-4AD9-8CF3-FD775C6D87F4}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16:D21">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{B9EE4543-4E37-4B3A-A29B-E9D529A3807A}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4105,34 +4187,6 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D7:D14">
-    <cfRule type="dataBar" priority="2">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{801CDEAF-68D6-4AD9-8CF3-FD775C6D87F4}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16:D21">
-    <cfRule type="dataBar" priority="1">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{B9EE4543-4E37-4B3A-A29B-E9D529A3807A}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -4181,6 +4235,36 @@
             </x14:dataBar>
           </x14:cfRule>
           <xm:sqref>C24:C31</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{801CDEAF-68D6-4AD9-8CF3-FD775C6D87F4}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D7:D14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{B9EE4543-4E37-4B3A-A29B-E9D529A3807A}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D16:D21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{EDC25928-7935-4D5D-AEDA-5B5846D585CF}">
@@ -4302,36 +4386,6 @@
           </x14:cfRule>
           <xm:sqref>F24:F31</xm:sqref>
         </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{801CDEAF-68D6-4AD9-8CF3-FD775C6D87F4}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D7:D14</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{B9EE4543-4E37-4B3A-A29B-E9D529A3807A}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:borderColor rgb="FF63C384"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D16:D21</xm:sqref>
-        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
@@ -5391,36 +5445,37 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC8A870E-BDEB-44F2-B759-D917A39F6A84}">
-  <dimension ref="B2:X28"/>
+  <dimension ref="B2:AC28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="57.85546875" customWidth="1"/>
-    <col min="4" max="6" width="9.42578125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="11.42578125" style="6" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5703125" style="6" customWidth="1"/>
-    <col min="14" max="14" width="2.140625" style="6" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" style="6"/>
-    <col min="16" max="16" width="6.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.42578125" style="67" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="2.28515625" style="6" customWidth="1"/>
-    <col min="19" max="19" width="8.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="1.7109375" style="6" customWidth="1"/>
-    <col min="23" max="23" width="9.7109375" style="119" customWidth="1"/>
-    <col min="24" max="24" width="2.28515625" style="6" customWidth="1"/>
+    <col min="4" max="8" width="12.28515625" style="162" customWidth="1"/>
+    <col min="9" max="11" width="9.42578125" style="6" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="11.42578125" style="6" customWidth="1"/>
+    <col min="17" max="17" width="10.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.5703125" style="6" customWidth="1"/>
+    <col min="19" max="19" width="2.140625" style="6" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" style="6"/>
+    <col min="21" max="21" width="6.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.42578125" style="67" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="2.28515625" style="6" customWidth="1"/>
+    <col min="24" max="24" width="8.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="6.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="1.7109375" style="6" customWidth="1"/>
+    <col min="28" max="28" width="9.7109375" style="119" customWidth="1"/>
+    <col min="29" max="29" width="2.28515625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:24" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:29" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B2" s="137" t="s">
         <v>15</v>
       </c>
@@ -5446,8 +5501,13 @@
       <c r="V2" s="137"/>
       <c r="W2" s="137"/>
       <c r="X2" s="137"/>
-    </row>
-    <row r="3" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Y2" s="137"/>
+      <c r="Z2" s="137"/>
+      <c r="AA2" s="137"/>
+      <c r="AB2" s="137"/>
+      <c r="AC2" s="137"/>
+    </row>
+    <row r="3" spans="2:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="138" t="s">
         <v>77</v>
       </c>
@@ -5473,8 +5533,13 @@
       <c r="V3" s="139"/>
       <c r="W3" s="139"/>
       <c r="X3" s="139"/>
-    </row>
-    <row r="4" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y3" s="139"/>
+      <c r="Z3" s="139"/>
+      <c r="AA3" s="139"/>
+      <c r="AB3" s="139"/>
+      <c r="AC3" s="139"/>
+    </row>
+    <row r="4" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B4" s="140" t="s">
         <v>106</v>
       </c>
@@ -5500,793 +5565,929 @@
       <c r="V4" s="140"/>
       <c r="W4" s="140"/>
       <c r="X4" s="140"/>
-    </row>
-    <row r="6" spans="2:24" s="81" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="Y4" s="140"/>
+      <c r="Z4" s="140"/>
+      <c r="AA4" s="140"/>
+      <c r="AB4" s="140"/>
+      <c r="AC4" s="140"/>
+    </row>
+    <row r="5" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="D5" s="155" t="s">
+        <v>123</v>
+      </c>
+      <c r="E5" s="155"/>
+      <c r="F5" s="155"/>
+      <c r="G5" s="155"/>
+      <c r="H5" s="155"/>
+    </row>
+    <row r="6" spans="2:29" s="81" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B6" s="73" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="147" t="s">
+      <c r="D6" s="156"/>
+      <c r="E6" s="157" t="s">
+        <v>124</v>
+      </c>
+      <c r="F6" s="158"/>
+      <c r="G6" s="159"/>
+      <c r="H6" s="156"/>
+      <c r="I6" s="147" t="s">
         <v>85</v>
       </c>
-      <c r="E6" s="148"/>
-      <c r="F6" s="148"/>
-      <c r="G6" s="148"/>
-      <c r="H6" s="149"/>
-      <c r="I6" s="76"/>
-      <c r="J6" s="76" t="s">
+      <c r="J6" s="148"/>
+      <c r="K6" s="148"/>
+      <c r="L6" s="148"/>
+      <c r="M6" s="149"/>
+      <c r="N6" s="76"/>
+      <c r="O6" s="76" t="s">
         <v>107</v>
       </c>
-      <c r="K6" s="76" t="s">
+      <c r="P6" s="76" t="s">
         <v>108</v>
       </c>
-      <c r="L6" s="150" t="s">
+      <c r="Q6" s="150" t="s">
         <v>86</v>
       </c>
-      <c r="M6" s="152" t="s">
+      <c r="R6" s="152" t="s">
         <v>87</v>
       </c>
-      <c r="N6" s="77"/>
-      <c r="O6" s="149" t="s">
+      <c r="S6" s="77"/>
+      <c r="T6" s="149" t="s">
         <v>16</v>
       </c>
-      <c r="P6" s="154"/>
-      <c r="Q6" s="154"/>
-      <c r="R6" s="79"/>
-      <c r="S6" s="154" t="s">
+      <c r="U6" s="154"/>
+      <c r="V6" s="154"/>
+      <c r="W6" s="79"/>
+      <c r="X6" s="154" t="s">
         <v>19</v>
       </c>
-      <c r="T6" s="154"/>
-      <c r="U6" s="154"/>
-      <c r="V6" s="79"/>
-      <c r="W6" s="80" t="s">
+      <c r="Y6" s="154"/>
+      <c r="Z6" s="154"/>
+      <c r="AA6" s="79"/>
+      <c r="AB6" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="X6" s="79"/>
-    </row>
-    <row r="7" spans="2:24" s="81" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AC6" s="79"/>
+    </row>
+    <row r="7" spans="2:29" s="81" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B7" s="82"/>
       <c r="C7" s="83"/>
-      <c r="D7" s="84" t="s">
+      <c r="D7" s="160" t="s">
+        <v>125</v>
+      </c>
+      <c r="E7" s="160" t="s">
+        <v>126</v>
+      </c>
+      <c r="F7" s="160" t="s">
+        <v>127</v>
+      </c>
+      <c r="G7" s="160" t="s">
+        <v>128</v>
+      </c>
+      <c r="H7" s="160" t="s">
+        <v>129</v>
+      </c>
+      <c r="I7" s="84" t="s">
         <v>88</v>
       </c>
-      <c r="E7" s="84" t="s">
+      <c r="J7" s="84" t="s">
         <v>121</v>
       </c>
-      <c r="F7" s="84" t="s">
+      <c r="K7" s="84" t="s">
         <v>89</v>
       </c>
-      <c r="G7" s="84" t="s">
+      <c r="L7" s="84" t="s">
         <v>90</v>
       </c>
-      <c r="H7" s="84" t="s">
+      <c r="M7" s="84" t="s">
         <v>62</v>
       </c>
-      <c r="I7" s="84" t="s">
+      <c r="N7" s="84" t="s">
         <v>109</v>
       </c>
-      <c r="J7" s="84" t="s">
+      <c r="O7" s="84" t="s">
         <v>110</v>
       </c>
-      <c r="K7" s="84" t="s">
+      <c r="P7" s="84" t="s">
         <v>111</v>
       </c>
-      <c r="L7" s="151"/>
-      <c r="M7" s="153"/>
-      <c r="N7" s="77"/>
-      <c r="O7" s="75" t="s">
+      <c r="Q7" s="151"/>
+      <c r="R7" s="153"/>
+      <c r="S7" s="77"/>
+      <c r="T7" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="P7" s="78" t="s">
+      <c r="U7" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="Q7" s="85" t="s">
+      <c r="V7" s="85" t="s">
         <v>103</v>
       </c>
-      <c r="R7" s="79"/>
-      <c r="S7" s="78" t="s">
+      <c r="W7" s="79"/>
+      <c r="X7" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="T7" s="78" t="s">
+      <c r="Y7" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="U7" s="78" t="s">
+      <c r="Z7" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="V7" s="79"/>
-      <c r="W7" s="86" t="s">
+      <c r="AA7" s="79"/>
+      <c r="AB7" s="86" t="s">
         <v>112</v>
       </c>
-      <c r="X7" s="79"/>
-    </row>
-    <row r="8" spans="2:24" s="81" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AC7" s="79"/>
+    </row>
+    <row r="8" spans="2:29" s="81" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>99</v>
       </c>
       <c r="C8" s="87"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="88"/>
-      <c r="F8" s="88"/>
-      <c r="G8" s="88"/>
-      <c r="H8" s="88"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
       <c r="I8" s="88"/>
       <c r="J8" s="88"/>
       <c r="K8" s="88"/>
       <c r="L8" s="88"/>
-      <c r="M8" s="89"/>
-      <c r="N8" s="77"/>
+      <c r="M8" s="88"/>
+      <c r="N8" s="88"/>
       <c r="O8" s="88"/>
-      <c r="P8" s="90"/>
-      <c r="Q8" s="91"/>
-      <c r="R8" s="79"/>
-      <c r="S8" s="90"/>
-      <c r="T8" s="90"/>
-      <c r="U8" s="92"/>
-      <c r="V8" s="79"/>
-      <c r="W8" s="93">
-        <f>D8+E8+F8+G8+H8+I8+J8+K8+L8+M8+P8+T8</f>
-        <v>0</v>
-      </c>
-      <c r="X8" s="79"/>
-    </row>
-    <row r="9" spans="2:24" s="81" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P8" s="88"/>
+      <c r="Q8" s="88"/>
+      <c r="R8" s="89"/>
+      <c r="S8" s="77"/>
+      <c r="T8" s="88"/>
+      <c r="U8" s="90"/>
+      <c r="V8" s="91"/>
+      <c r="W8" s="79"/>
+      <c r="X8" s="90"/>
+      <c r="Y8" s="90"/>
+      <c r="Z8" s="92"/>
+      <c r="AA8" s="79"/>
+      <c r="AB8" s="93">
+        <f>I8+J8+K8+L8+M8+N8+O8+P8+Q8+R8+U8+Y8</f>
+        <v>0</v>
+      </c>
+      <c r="AC8" s="79"/>
+    </row>
+    <row r="9" spans="2:29" s="81" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D9" s="94"/>
-      <c r="E9" s="94"/>
-      <c r="F9" s="94"/>
-      <c r="G9" s="94">
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="94"/>
+      <c r="J9" s="94"/>
+      <c r="K9" s="94"/>
+      <c r="L9" s="94">
         <v>0.3</v>
       </c>
-      <c r="H9" s="95"/>
-      <c r="I9" s="94"/>
-      <c r="J9" s="96">
+      <c r="M9" s="95"/>
+      <c r="N9" s="94"/>
+      <c r="O9" s="96">
         <v>1</v>
       </c>
-      <c r="K9" s="96"/>
-      <c r="L9" s="88"/>
-      <c r="M9" s="89"/>
-      <c r="N9" s="77"/>
-      <c r="O9" s="88"/>
-      <c r="P9" s="90"/>
-      <c r="Q9" s="97">
-        <f>O9-P9</f>
-        <v>0</v>
-      </c>
-      <c r="R9" s="79"/>
-      <c r="S9" s="90"/>
-      <c r="T9" s="90"/>
-      <c r="U9" s="98">
-        <f t="shared" ref="U9" si="0">IF(S9=0,0,(T9-S9)/S9)</f>
-        <v>0</v>
-      </c>
-      <c r="V9" s="99"/>
-      <c r="W9" s="93">
-        <f t="shared" ref="W9:W26" si="1">D9+E9+F9+G9+H9+I9+J9+K9+L9+M9+P9+T9</f>
+      <c r="P9" s="96"/>
+      <c r="Q9" s="88"/>
+      <c r="R9" s="89"/>
+      <c r="S9" s="77"/>
+      <c r="T9" s="88"/>
+      <c r="U9" s="90"/>
+      <c r="V9" s="97">
+        <f>T9-U9</f>
+        <v>0</v>
+      </c>
+      <c r="W9" s="79"/>
+      <c r="X9" s="90"/>
+      <c r="Y9" s="90"/>
+      <c r="Z9" s="98">
+        <f t="shared" ref="Z9" si="0">IF(X9=0,0,(Y9-X9)/X9)</f>
+        <v>0</v>
+      </c>
+      <c r="AA9" s="99"/>
+      <c r="AB9" s="93">
+        <f t="shared" ref="AB9:AB26" si="1">I9+J9+K9+L9+M9+N9+O9+P9+Q9+R9+U9+Y9</f>
         <v>1.3</v>
       </c>
-      <c r="X9" s="79"/>
-    </row>
-    <row r="10" spans="2:24" s="81" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AC9" s="79"/>
+    </row>
+    <row r="10" spans="2:29" s="81" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D10" s="94"/>
-      <c r="E10" s="94"/>
-      <c r="F10" s="94"/>
-      <c r="G10" s="94"/>
-      <c r="H10" s="95"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
       <c r="I10" s="94"/>
-      <c r="J10" s="96"/>
-      <c r="K10" s="96"/>
-      <c r="L10" s="88"/>
-      <c r="M10" s="89"/>
-      <c r="N10" s="77"/>
-      <c r="O10" s="88"/>
-      <c r="P10" s="90"/>
-      <c r="Q10" s="97"/>
-      <c r="R10" s="79"/>
-      <c r="S10" s="90"/>
-      <c r="T10" s="90"/>
-      <c r="U10" s="98"/>
-      <c r="V10" s="99"/>
-      <c r="W10" s="93">
+      <c r="J10" s="94"/>
+      <c r="K10" s="94"/>
+      <c r="L10" s="94"/>
+      <c r="M10" s="95"/>
+      <c r="N10" s="94"/>
+      <c r="O10" s="96"/>
+      <c r="P10" s="96"/>
+      <c r="Q10" s="88"/>
+      <c r="R10" s="89"/>
+      <c r="S10" s="77"/>
+      <c r="T10" s="88"/>
+      <c r="U10" s="90"/>
+      <c r="V10" s="97"/>
+      <c r="W10" s="79"/>
+      <c r="X10" s="90"/>
+      <c r="Y10" s="90"/>
+      <c r="Z10" s="98"/>
+      <c r="AA10" s="99"/>
+      <c r="AB10" s="93">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="X10" s="79"/>
-    </row>
-    <row r="11" spans="2:24" s="81" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AC10" s="79"/>
+    </row>
+    <row r="11" spans="2:29" s="81" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D11" s="90"/>
-      <c r="E11" s="90"/>
-      <c r="F11" s="90">
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="90"/>
+      <c r="J11" s="90"/>
+      <c r="K11" s="90">
         <v>1.75</v>
       </c>
-      <c r="G11" s="90"/>
-      <c r="H11" s="100"/>
-      <c r="I11" s="90"/>
-      <c r="J11" s="88"/>
-      <c r="K11" s="88">
+      <c r="L11" s="90"/>
+      <c r="M11" s="100"/>
+      <c r="N11" s="90"/>
+      <c r="O11" s="88"/>
+      <c r="P11" s="88">
         <v>4.75</v>
       </c>
-      <c r="L11" s="90"/>
-      <c r="M11" s="100">
+      <c r="Q11" s="90"/>
+      <c r="R11" s="100">
         <v>2</v>
       </c>
-      <c r="N11" s="77"/>
-      <c r="O11" s="88"/>
-      <c r="P11" s="90">
+      <c r="S11" s="77"/>
+      <c r="T11" s="88"/>
+      <c r="U11" s="90">
         <v>38.5</v>
       </c>
-      <c r="Q11" s="91"/>
-      <c r="R11" s="90"/>
-      <c r="S11" s="90"/>
-      <c r="T11" s="90"/>
-      <c r="U11" s="98"/>
-      <c r="V11" s="88"/>
-      <c r="W11" s="93">
+      <c r="V11" s="91"/>
+      <c r="W11" s="90"/>
+      <c r="X11" s="90"/>
+      <c r="Y11" s="90"/>
+      <c r="Z11" s="98"/>
+      <c r="AA11" s="88"/>
+      <c r="AB11" s="93">
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="X11" s="90"/>
-    </row>
-    <row r="12" spans="2:24" s="81" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AC11" s="90"/>
+    </row>
+    <row r="12" spans="2:29" s="81" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D12" s="90"/>
-      <c r="E12" s="90"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="90"/>
-      <c r="H12" s="100"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
       <c r="I12" s="90"/>
-      <c r="J12" s="88"/>
-      <c r="K12" s="88"/>
+      <c r="J12" s="90"/>
+      <c r="K12" s="90"/>
       <c r="L12" s="90"/>
       <c r="M12" s="100"/>
-      <c r="N12" s="77"/>
+      <c r="N12" s="90"/>
       <c r="O12" s="88"/>
-      <c r="P12" s="90">
+      <c r="P12" s="88"/>
+      <c r="Q12" s="90"/>
+      <c r="R12" s="100"/>
+      <c r="S12" s="77"/>
+      <c r="T12" s="88"/>
+      <c r="U12" s="90">
         <v>8</v>
       </c>
-      <c r="Q12" s="91"/>
-      <c r="R12" s="90"/>
-      <c r="S12" s="90"/>
-      <c r="T12" s="90">
+      <c r="V12" s="91"/>
+      <c r="W12" s="90"/>
+      <c r="X12" s="90"/>
+      <c r="Y12" s="90">
         <v>43</v>
       </c>
-      <c r="U12" s="98"/>
-      <c r="V12" s="88"/>
-      <c r="W12" s="93">
+      <c r="Z12" s="98"/>
+      <c r="AA12" s="88"/>
+      <c r="AB12" s="93">
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
-      <c r="X12" s="90"/>
-    </row>
-    <row r="13" spans="2:24" s="81" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AC12" s="90"/>
+    </row>
+    <row r="13" spans="2:29" s="81" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D13" s="90"/>
-      <c r="E13" s="90"/>
-      <c r="F13" s="90"/>
-      <c r="G13" s="90"/>
-      <c r="H13" s="100"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
       <c r="I13" s="90"/>
-      <c r="J13" s="88"/>
-      <c r="K13" s="88"/>
+      <c r="J13" s="90"/>
+      <c r="K13" s="90"/>
       <c r="L13" s="90"/>
       <c r="M13" s="100"/>
-      <c r="N13" s="77"/>
+      <c r="N13" s="90"/>
       <c r="O13" s="88"/>
-      <c r="P13" s="90">
+      <c r="P13" s="88"/>
+      <c r="Q13" s="90"/>
+      <c r="R13" s="100"/>
+      <c r="S13" s="77"/>
+      <c r="T13" s="88"/>
+      <c r="U13" s="90">
         <v>24</v>
       </c>
-      <c r="Q13" s="97">
-        <f t="shared" ref="Q13" si="2">IF(O13=0,0,(P13-O13)/O13)</f>
-        <v>0</v>
-      </c>
-      <c r="R13" s="90"/>
-      <c r="S13" s="90"/>
-      <c r="T13" s="90"/>
-      <c r="U13" s="98">
-        <f t="shared" ref="U13" si="3">IF(S13=0,0,(T13-S13)/S13)</f>
-        <v>0</v>
-      </c>
-      <c r="V13" s="88"/>
-      <c r="W13" s="93">
+      <c r="V13" s="97">
+        <f t="shared" ref="V13" si="2">IF(T13=0,0,(U13-T13)/T13)</f>
+        <v>0</v>
+      </c>
+      <c r="W13" s="90"/>
+      <c r="X13" s="90"/>
+      <c r="Y13" s="90"/>
+      <c r="Z13" s="98">
+        <f t="shared" ref="Z13" si="3">IF(X13=0,0,(Y13-X13)/X13)</f>
+        <v>0</v>
+      </c>
+      <c r="AA13" s="88"/>
+      <c r="AB13" s="93">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="X13" s="90"/>
-    </row>
-    <row r="14" spans="2:24" s="81" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AC13" s="90"/>
+    </row>
+    <row r="14" spans="2:29" s="81" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D14" s="101"/>
-      <c r="E14" s="101"/>
-      <c r="F14" s="101"/>
-      <c r="G14" s="101"/>
-      <c r="H14" s="102"/>
-      <c r="I14" s="90"/>
-      <c r="J14" s="103"/>
-      <c r="K14" s="103"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="101"/>
+      <c r="J14" s="101"/>
+      <c r="K14" s="101"/>
       <c r="L14" s="101"/>
       <c r="M14" s="102"/>
-      <c r="N14" s="77"/>
+      <c r="N14" s="90"/>
       <c r="O14" s="103"/>
-      <c r="P14" s="101">
+      <c r="P14" s="103"/>
+      <c r="Q14" s="101"/>
+      <c r="R14" s="102"/>
+      <c r="S14" s="77"/>
+      <c r="T14" s="103"/>
+      <c r="U14" s="101">
         <v>13</v>
       </c>
-      <c r="Q14" s="104"/>
-      <c r="R14" s="101"/>
-      <c r="S14" s="90"/>
-      <c r="T14" s="90">
+      <c r="V14" s="104"/>
+      <c r="W14" s="101"/>
+      <c r="X14" s="90"/>
+      <c r="Y14" s="90">
         <v>3.5</v>
       </c>
-      <c r="U14" s="98"/>
-      <c r="V14" s="103"/>
-      <c r="W14" s="93">
+      <c r="Z14" s="98"/>
+      <c r="AA14" s="103"/>
+      <c r="AB14" s="93">
         <f t="shared" si="1"/>
         <v>16.5</v>
       </c>
-      <c r="X14" s="101"/>
-    </row>
-    <row r="15" spans="2:24" s="81" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AC14" s="101"/>
+    </row>
+    <row r="15" spans="2:29" s="81" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>116</v>
       </c>
       <c r="C15" s="1"/>
-      <c r="D15" s="101"/>
-      <c r="E15" s="101"/>
-      <c r="F15" s="101"/>
-      <c r="G15" s="101"/>
-      <c r="H15" s="102"/>
-      <c r="I15" s="90"/>
-      <c r="J15" s="103"/>
-      <c r="K15" s="103"/>
-      <c r="L15" s="103"/>
-      <c r="M15" s="105"/>
-      <c r="N15" s="77"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="101"/>
+      <c r="J15" s="101"/>
+      <c r="K15" s="101"/>
+      <c r="L15" s="101"/>
+      <c r="M15" s="102"/>
+      <c r="N15" s="90"/>
       <c r="O15" s="103"/>
-      <c r="P15" s="101"/>
-      <c r="Q15" s="104"/>
-      <c r="R15" s="79"/>
-      <c r="S15" s="90"/>
-      <c r="T15" s="90"/>
-      <c r="U15" s="98"/>
-      <c r="V15" s="79"/>
-      <c r="W15" s="93">
+      <c r="P15" s="103"/>
+      <c r="Q15" s="103"/>
+      <c r="R15" s="105"/>
+      <c r="S15" s="77"/>
+      <c r="T15" s="103"/>
+      <c r="U15" s="101"/>
+      <c r="V15" s="104"/>
+      <c r="W15" s="79"/>
+      <c r="X15" s="90"/>
+      <c r="Y15" s="90"/>
+      <c r="Z15" s="98"/>
+      <c r="AA15" s="79"/>
+      <c r="AB15" s="93">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="X15" s="79"/>
-    </row>
-    <row r="16" spans="2:24" s="81" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AC15" s="79"/>
+    </row>
+    <row r="16" spans="2:29" s="81" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D16" s="101"/>
-      <c r="E16" s="101"/>
-      <c r="F16" s="101">
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="101"/>
+      <c r="J16" s="101"/>
+      <c r="K16" s="101">
         <v>2</v>
       </c>
-      <c r="G16" s="101"/>
-      <c r="H16" s="101"/>
-      <c r="I16" s="103"/>
-      <c r="J16" s="103"/>
-      <c r="K16" s="103"/>
-      <c r="L16" s="103"/>
-      <c r="M16" s="105"/>
-      <c r="N16" s="77"/>
+      <c r="L16" s="101"/>
+      <c r="M16" s="101"/>
+      <c r="N16" s="103"/>
       <c r="O16" s="103"/>
-      <c r="P16" s="101"/>
-      <c r="Q16" s="104"/>
-      <c r="R16" s="79"/>
-      <c r="S16" s="90"/>
-      <c r="T16" s="90"/>
-      <c r="U16" s="98"/>
-      <c r="V16" s="79"/>
-      <c r="W16" s="93">
+      <c r="P16" s="103"/>
+      <c r="Q16" s="103"/>
+      <c r="R16" s="105"/>
+      <c r="S16" s="77"/>
+      <c r="T16" s="103"/>
+      <c r="U16" s="101"/>
+      <c r="V16" s="104"/>
+      <c r="W16" s="79"/>
+      <c r="X16" s="90"/>
+      <c r="Y16" s="90"/>
+      <c r="Z16" s="98"/>
+      <c r="AA16" s="79"/>
+      <c r="AB16" s="93">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="X16" s="79"/>
-    </row>
-    <row r="17" spans="2:24" s="81" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AC16" s="79"/>
+    </row>
+    <row r="17" spans="2:29" s="81" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C17" s="1"/>
-      <c r="D17" s="101"/>
-      <c r="E17" s="101"/>
-      <c r="F17" s="101"/>
-      <c r="G17" s="101"/>
-      <c r="H17" s="101"/>
-      <c r="I17" s="103"/>
-      <c r="J17" s="103"/>
-      <c r="K17" s="103"/>
-      <c r="L17" s="103"/>
-      <c r="M17" s="105"/>
-      <c r="N17" s="77"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="101"/>
+      <c r="J17" s="101"/>
+      <c r="K17" s="101"/>
+      <c r="L17" s="101"/>
+      <c r="M17" s="101"/>
+      <c r="N17" s="103"/>
       <c r="O17" s="103"/>
-      <c r="P17" s="101"/>
-      <c r="Q17" s="104"/>
-      <c r="R17" s="79"/>
-      <c r="S17" s="90"/>
-      <c r="T17" s="90"/>
-      <c r="U17" s="98"/>
-      <c r="V17" s="79"/>
-      <c r="W17" s="93">
+      <c r="P17" s="103"/>
+      <c r="Q17" s="103"/>
+      <c r="R17" s="105"/>
+      <c r="S17" s="77"/>
+      <c r="T17" s="103"/>
+      <c r="U17" s="101"/>
+      <c r="V17" s="104"/>
+      <c r="W17" s="79"/>
+      <c r="X17" s="90"/>
+      <c r="Y17" s="90"/>
+      <c r="Z17" s="98"/>
+      <c r="AA17" s="79"/>
+      <c r="AB17" s="93">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="X17" s="79"/>
-    </row>
-    <row r="18" spans="2:24" s="81" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AC17" s="79"/>
+    </row>
+    <row r="18" spans="2:29" s="81" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D18" s="101"/>
-      <c r="E18" s="101">
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="101"/>
+      <c r="J18" s="101">
         <v>5.5</v>
       </c>
-      <c r="F18" s="101"/>
-      <c r="G18" s="101"/>
-      <c r="H18" s="101"/>
-      <c r="I18" s="103"/>
-      <c r="J18" s="103"/>
-      <c r="K18" s="103"/>
-      <c r="L18" s="103"/>
-      <c r="M18" s="105"/>
-      <c r="N18" s="77"/>
+      <c r="K18" s="101"/>
+      <c r="L18" s="101"/>
+      <c r="M18" s="101"/>
+      <c r="N18" s="103"/>
       <c r="O18" s="103"/>
-      <c r="P18" s="101"/>
-      <c r="Q18" s="104"/>
-      <c r="R18" s="79"/>
-      <c r="S18" s="90"/>
-      <c r="T18" s="90"/>
-      <c r="U18" s="98"/>
-      <c r="V18" s="79"/>
-      <c r="W18" s="93">
+      <c r="P18" s="103"/>
+      <c r="Q18" s="103"/>
+      <c r="R18" s="105"/>
+      <c r="S18" s="77"/>
+      <c r="T18" s="103"/>
+      <c r="U18" s="101"/>
+      <c r="V18" s="104"/>
+      <c r="W18" s="79"/>
+      <c r="X18" s="90"/>
+      <c r="Y18" s="90"/>
+      <c r="Z18" s="98"/>
+      <c r="AA18" s="79"/>
+      <c r="AB18" s="93">
         <f t="shared" si="1"/>
         <v>5.5</v>
       </c>
-      <c r="X18" s="79"/>
-    </row>
-    <row r="19" spans="2:24" s="81" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AC18" s="79"/>
+    </row>
+    <row r="19" spans="2:29" s="81" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D19" s="101"/>
-      <c r="E19" s="101"/>
-      <c r="F19" s="101">
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="101"/>
+      <c r="J19" s="101"/>
+      <c r="K19" s="101">
         <v>5.15</v>
       </c>
-      <c r="G19" s="101"/>
-      <c r="H19" s="101"/>
-      <c r="I19" s="103"/>
-      <c r="J19" s="103"/>
-      <c r="K19" s="103"/>
-      <c r="L19" s="103"/>
-      <c r="M19" s="105"/>
-      <c r="N19" s="77"/>
+      <c r="L19" s="101"/>
+      <c r="M19" s="101"/>
+      <c r="N19" s="103"/>
       <c r="O19" s="103"/>
-      <c r="P19" s="101"/>
-      <c r="Q19" s="104"/>
-      <c r="R19" s="79"/>
-      <c r="S19" s="90"/>
-      <c r="T19" s="90"/>
-      <c r="U19" s="98"/>
-      <c r="V19" s="79"/>
-      <c r="W19" s="93">
+      <c r="P19" s="103"/>
+      <c r="Q19" s="103"/>
+      <c r="R19" s="105"/>
+      <c r="S19" s="77"/>
+      <c r="T19" s="103"/>
+      <c r="U19" s="101"/>
+      <c r="V19" s="104"/>
+      <c r="W19" s="79"/>
+      <c r="X19" s="90"/>
+      <c r="Y19" s="90"/>
+      <c r="Z19" s="98"/>
+      <c r="AA19" s="79"/>
+      <c r="AB19" s="93">
         <f t="shared" si="1"/>
         <v>5.15</v>
       </c>
-      <c r="X19" s="79"/>
-    </row>
-    <row r="20" spans="2:24" s="81" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AC19" s="79"/>
+    </row>
+    <row r="20" spans="2:29" s="81" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="87"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="101"/>
-      <c r="E20" s="101"/>
-      <c r="F20" s="101"/>
-      <c r="G20" s="101"/>
-      <c r="H20" s="101"/>
-      <c r="I20" s="103"/>
-      <c r="J20" s="103"/>
-      <c r="K20" s="103"/>
-      <c r="L20" s="103"/>
-      <c r="M20" s="105"/>
-      <c r="N20" s="77"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="101"/>
+      <c r="J20" s="101"/>
+      <c r="K20" s="101"/>
+      <c r="L20" s="101"/>
+      <c r="M20" s="101"/>
+      <c r="N20" s="103"/>
       <c r="O20" s="103"/>
-      <c r="P20" s="101"/>
-      <c r="Q20" s="97">
-        <f>O20-P20</f>
-        <v>0</v>
-      </c>
-      <c r="R20" s="79"/>
-      <c r="S20" s="90"/>
-      <c r="T20" s="90"/>
-      <c r="U20" s="98"/>
-      <c r="V20" s="79"/>
-      <c r="W20" s="93">
+      <c r="P20" s="103"/>
+      <c r="Q20" s="103"/>
+      <c r="R20" s="105"/>
+      <c r="S20" s="77"/>
+      <c r="T20" s="103"/>
+      <c r="U20" s="101"/>
+      <c r="V20" s="97">
+        <f>T20-U20</f>
+        <v>0</v>
+      </c>
+      <c r="W20" s="79"/>
+      <c r="X20" s="90"/>
+      <c r="Y20" s="90"/>
+      <c r="Z20" s="98"/>
+      <c r="AA20" s="79"/>
+      <c r="AB20" s="93">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="X20" s="79"/>
-    </row>
-    <row r="21" spans="2:24" s="81" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AC20" s="79"/>
+    </row>
+    <row r="21" spans="2:29" s="81" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="87"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="101"/>
-      <c r="E21" s="101"/>
-      <c r="F21" s="101"/>
-      <c r="G21" s="101"/>
-      <c r="H21" s="101"/>
-      <c r="I21" s="103"/>
-      <c r="J21" s="103"/>
-      <c r="K21" s="103"/>
-      <c r="L21" s="103"/>
-      <c r="M21" s="105"/>
-      <c r="N21" s="77"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="101"/>
+      <c r="J21" s="101"/>
+      <c r="K21" s="101"/>
+      <c r="L21" s="101"/>
+      <c r="M21" s="101"/>
+      <c r="N21" s="103"/>
       <c r="O21" s="103"/>
-      <c r="P21" s="101"/>
-      <c r="Q21" s="97">
-        <f>O21-P21</f>
-        <v>0</v>
-      </c>
-      <c r="R21" s="79"/>
-      <c r="S21" s="90"/>
-      <c r="T21" s="90"/>
-      <c r="U21" s="98"/>
-      <c r="V21" s="79"/>
-      <c r="W21" s="93">
+      <c r="P21" s="103"/>
+      <c r="Q21" s="103"/>
+      <c r="R21" s="105"/>
+      <c r="S21" s="77"/>
+      <c r="T21" s="103"/>
+      <c r="U21" s="101"/>
+      <c r="V21" s="97">
+        <f>T21-U21</f>
+        <v>0</v>
+      </c>
+      <c r="W21" s="79"/>
+      <c r="X21" s="90"/>
+      <c r="Y21" s="90"/>
+      <c r="Z21" s="98"/>
+      <c r="AA21" s="79"/>
+      <c r="AB21" s="93">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="X21" s="79"/>
-    </row>
-    <row r="22" spans="2:24" s="81" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AC21" s="79"/>
+    </row>
+    <row r="22" spans="2:29" s="81" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="101"/>
-      <c r="E22" s="101"/>
-      <c r="F22" s="101"/>
-      <c r="G22" s="101"/>
-      <c r="H22" s="101"/>
-      <c r="I22" s="103"/>
-      <c r="J22" s="103"/>
-      <c r="K22" s="103"/>
-      <c r="L22" s="103"/>
-      <c r="M22" s="105"/>
-      <c r="N22" s="77"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="101"/>
+      <c r="J22" s="101"/>
+      <c r="K22" s="101"/>
+      <c r="L22" s="101"/>
+      <c r="M22" s="101"/>
+      <c r="N22" s="103"/>
       <c r="O22" s="103"/>
-      <c r="P22" s="101"/>
-      <c r="Q22" s="104"/>
-      <c r="R22" s="79"/>
-      <c r="S22" s="90"/>
-      <c r="T22" s="90"/>
-      <c r="U22" s="98"/>
-      <c r="V22" s="79"/>
-      <c r="W22" s="93">
+      <c r="P22" s="103"/>
+      <c r="Q22" s="103"/>
+      <c r="R22" s="105"/>
+      <c r="S22" s="77"/>
+      <c r="T22" s="103"/>
+      <c r="U22" s="101"/>
+      <c r="V22" s="104"/>
+      <c r="W22" s="79"/>
+      <c r="X22" s="90"/>
+      <c r="Y22" s="90"/>
+      <c r="Z22" s="98"/>
+      <c r="AA22" s="79"/>
+      <c r="AB22" s="93">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="X22" s="79"/>
-    </row>
-    <row r="23" spans="2:24" s="81" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AC22" s="79"/>
+    </row>
+    <row r="23" spans="2:29" s="81" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="87"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="101"/>
-      <c r="E23" s="101"/>
-      <c r="F23" s="101"/>
-      <c r="G23" s="101"/>
-      <c r="H23" s="101"/>
-      <c r="I23" s="103"/>
-      <c r="J23" s="103"/>
-      <c r="K23" s="103"/>
-      <c r="L23" s="103"/>
-      <c r="M23" s="105"/>
-      <c r="N23" s="77"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="101"/>
+      <c r="J23" s="101"/>
+      <c r="K23" s="101"/>
+      <c r="L23" s="101"/>
+      <c r="M23" s="101"/>
+      <c r="N23" s="103"/>
       <c r="O23" s="103"/>
-      <c r="P23" s="101"/>
-      <c r="Q23" s="104"/>
-      <c r="R23" s="79"/>
-      <c r="S23" s="90"/>
-      <c r="T23" s="90"/>
-      <c r="U23" s="98"/>
-      <c r="V23" s="79"/>
-      <c r="W23" s="93">
+      <c r="P23" s="103"/>
+      <c r="Q23" s="103"/>
+      <c r="R23" s="105"/>
+      <c r="S23" s="77"/>
+      <c r="T23" s="103"/>
+      <c r="U23" s="101"/>
+      <c r="V23" s="104"/>
+      <c r="W23" s="79"/>
+      <c r="X23" s="90"/>
+      <c r="Y23" s="90"/>
+      <c r="Z23" s="98"/>
+      <c r="AA23" s="79"/>
+      <c r="AB23" s="93">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="X23" s="79"/>
-    </row>
-    <row r="24" spans="2:24" s="81" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AC23" s="79"/>
+    </row>
+    <row r="24" spans="2:29" s="81" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="101"/>
-      <c r="E24" s="101"/>
-      <c r="F24" s="101"/>
-      <c r="G24" s="101"/>
-      <c r="H24" s="101"/>
-      <c r="I24" s="103"/>
-      <c r="J24" s="103"/>
-      <c r="K24" s="103"/>
-      <c r="L24" s="103"/>
-      <c r="M24" s="105"/>
-      <c r="N24" s="77"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="101"/>
+      <c r="J24" s="101"/>
+      <c r="K24" s="101"/>
+      <c r="L24" s="101"/>
+      <c r="M24" s="101"/>
+      <c r="N24" s="103"/>
       <c r="O24" s="103"/>
-      <c r="P24" s="101"/>
-      <c r="Q24" s="104"/>
-      <c r="R24" s="79"/>
-      <c r="S24" s="90"/>
-      <c r="T24" s="90"/>
-      <c r="U24" s="98"/>
-      <c r="V24" s="79"/>
-      <c r="W24" s="93">
+      <c r="P24" s="103"/>
+      <c r="Q24" s="103"/>
+      <c r="R24" s="105"/>
+      <c r="S24" s="77"/>
+      <c r="T24" s="103"/>
+      <c r="U24" s="101"/>
+      <c r="V24" s="104"/>
+      <c r="W24" s="79"/>
+      <c r="X24" s="90"/>
+      <c r="Y24" s="90"/>
+      <c r="Z24" s="98"/>
+      <c r="AA24" s="79"/>
+      <c r="AB24" s="93">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="X24" s="79"/>
-    </row>
-    <row r="25" spans="2:24" s="81" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AC24" s="79"/>
+    </row>
+    <row r="25" spans="2:29" s="81" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
-      <c r="D25" s="101"/>
-      <c r="E25" s="101"/>
-      <c r="F25" s="101"/>
-      <c r="G25" s="101"/>
-      <c r="H25" s="101"/>
-      <c r="I25" s="103"/>
-      <c r="J25" s="103"/>
-      <c r="K25" s="103"/>
-      <c r="L25" s="103"/>
-      <c r="M25" s="105"/>
-      <c r="N25" s="77"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="101"/>
+      <c r="J25" s="101"/>
+      <c r="K25" s="101"/>
+      <c r="L25" s="101"/>
+      <c r="M25" s="101"/>
+      <c r="N25" s="103"/>
       <c r="O25" s="103"/>
-      <c r="P25" s="101"/>
-      <c r="Q25" s="104"/>
-      <c r="R25" s="79"/>
-      <c r="S25" s="90"/>
-      <c r="T25" s="90"/>
-      <c r="U25" s="98"/>
-      <c r="V25" s="79"/>
-      <c r="W25" s="93">
+      <c r="P25" s="103"/>
+      <c r="Q25" s="103"/>
+      <c r="R25" s="105"/>
+      <c r="S25" s="77"/>
+      <c r="T25" s="103"/>
+      <c r="U25" s="101"/>
+      <c r="V25" s="104"/>
+      <c r="W25" s="79"/>
+      <c r="X25" s="90"/>
+      <c r="Y25" s="90"/>
+      <c r="Z25" s="98"/>
+      <c r="AA25" s="79"/>
+      <c r="AB25" s="93">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="X25" s="79"/>
-    </row>
-    <row r="26" spans="2:24" s="81" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="AC25" s="79"/>
+    </row>
+    <row r="26" spans="2:29" s="81" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="87"/>
       <c r="C26" s="87"/>
-      <c r="D26" s="101"/>
-      <c r="E26" s="101"/>
-      <c r="F26" s="101"/>
-      <c r="G26" s="101"/>
-      <c r="H26" s="101"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
       <c r="I26" s="101"/>
       <c r="J26" s="101"/>
       <c r="K26" s="101"/>
       <c r="L26" s="101"/>
-      <c r="M26" s="102"/>
-      <c r="N26" s="77"/>
-      <c r="O26" s="103"/>
+      <c r="M26" s="101"/>
+      <c r="N26" s="101"/>
+      <c r="O26" s="101"/>
       <c r="P26" s="101"/>
-      <c r="Q26" s="104"/>
-      <c r="R26" s="101"/>
-      <c r="S26" s="90"/>
-      <c r="T26" s="90"/>
-      <c r="U26" s="98"/>
-      <c r="V26" s="103"/>
-      <c r="W26" s="93">
+      <c r="Q26" s="101"/>
+      <c r="R26" s="102"/>
+      <c r="S26" s="77"/>
+      <c r="T26" s="103"/>
+      <c r="U26" s="101"/>
+      <c r="V26" s="104"/>
+      <c r="W26" s="101"/>
+      <c r="X26" s="90"/>
+      <c r="Y26" s="90"/>
+      <c r="Z26" s="98"/>
+      <c r="AA26" s="103"/>
+      <c r="AB26" s="93">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="X26" s="106"/>
-    </row>
-    <row r="27" spans="2:24" s="81" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AC26" s="106"/>
+    </row>
+    <row r="27" spans="2:29" s="81" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="107" t="s">
         <v>22</v>
       </c>
       <c r="C27" s="108"/>
-      <c r="D27" s="109">
-        <f t="shared" ref="D27:M27" si="4">SUM(D8:D26)</f>
-        <v>0</v>
-      </c>
-      <c r="E27" s="109">
+      <c r="D27" s="161"/>
+      <c r="E27" s="161"/>
+      <c r="F27" s="161"/>
+      <c r="G27" s="161"/>
+      <c r="H27" s="161"/>
+      <c r="I27" s="109">
+        <f t="shared" ref="I27:R27" si="4">SUM(I8:I26)</f>
+        <v>0</v>
+      </c>
+      <c r="J27" s="109">
         <f t="shared" si="4"/>
         <v>5.5</v>
       </c>
-      <c r="F27" s="109">
+      <c r="K27" s="109">
         <f t="shared" si="4"/>
         <v>8.9</v>
       </c>
-      <c r="G27" s="109">
+      <c r="L27" s="109">
         <f t="shared" si="4"/>
         <v>0.3</v>
       </c>
-      <c r="H27" s="109">
+      <c r="M27" s="109">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I27" s="109">
+      <c r="N27" s="109">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J27" s="109">
+      <c r="O27" s="109">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="K27" s="109">
+      <c r="P27" s="109">
         <f t="shared" si="4"/>
         <v>4.75</v>
       </c>
-      <c r="L27" s="109">
+      <c r="Q27" s="109">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M27" s="110">
+      <c r="R27" s="110">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="N27" s="77"/>
-      <c r="O27" s="111">
-        <f>SUM(O8:O26)</f>
-        <v>0</v>
-      </c>
-      <c r="P27" s="109">
-        <f>SUM(P8:P26)</f>
+      <c r="S27" s="77"/>
+      <c r="T27" s="111">
+        <f>SUM(T8:T26)</f>
+        <v>0</v>
+      </c>
+      <c r="U27" s="109">
+        <f>SUM(U8:U26)</f>
         <v>83.5</v>
       </c>
-      <c r="Q27" s="112">
-        <f>SUM(Q8:Q26)</f>
-        <v>0</v>
-      </c>
-      <c r="R27" s="109"/>
-      <c r="S27" s="113">
-        <f>SUM(S8:S26)</f>
-        <v>0</v>
-      </c>
-      <c r="T27" s="113">
-        <f>SUM(T8:T26)</f>
+      <c r="V27" s="112">
+        <f>SUM(V8:V26)</f>
+        <v>0</v>
+      </c>
+      <c r="W27" s="109"/>
+      <c r="X27" s="113">
+        <f>SUM(X8:X26)</f>
+        <v>0</v>
+      </c>
+      <c r="Y27" s="113">
+        <f>SUM(Y8:Y26)</f>
         <v>46.5</v>
       </c>
-      <c r="U27" s="113">
-        <f>SUM(U8:U26)</f>
-        <v>0</v>
-      </c>
-      <c r="V27" s="111"/>
-      <c r="W27" s="114">
-        <f>SUM(W8:W26)</f>
+      <c r="Z27" s="113">
+        <f>SUM(Z8:Z26)</f>
+        <v>0</v>
+      </c>
+      <c r="AA27" s="111"/>
+      <c r="AB27" s="114">
+        <f>SUM(AB8:AB26)</f>
         <v>152.45000000000002</v>
       </c>
-      <c r="X27" s="106"/>
-    </row>
-    <row r="28" spans="2:24" s="115" customFormat="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="D28" s="116"/>
-      <c r="E28" s="116"/>
-      <c r="F28" s="116"/>
-      <c r="G28" s="116"/>
-      <c r="H28" s="116"/>
+      <c r="AC27" s="106"/>
+    </row>
+    <row r="28" spans="2:29" s="115" customFormat="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="D28" s="162"/>
+      <c r="E28" s="162"/>
+      <c r="F28" s="162"/>
+      <c r="G28" s="162"/>
+      <c r="H28" s="162"/>
       <c r="I28" s="116"/>
       <c r="J28" s="116"/>
       <c r="K28" s="116"/>
@@ -6295,26 +6496,36 @@
       <c r="N28" s="116"/>
       <c r="O28" s="116"/>
       <c r="P28" s="116"/>
-      <c r="Q28" s="117"/>
+      <c r="Q28" s="116"/>
       <c r="R28" s="116"/>
       <c r="S28" s="116"/>
       <c r="T28" s="116"/>
       <c r="U28" s="116"/>
-      <c r="V28" s="116"/>
-      <c r="W28" s="118"/>
+      <c r="V28" s="117"/>
+      <c r="W28" s="116"/>
       <c r="X28" s="116"/>
+      <c r="Y28" s="116"/>
+      <c r="Z28" s="116"/>
+      <c r="AA28" s="116"/>
+      <c r="AB28" s="118"/>
+      <c r="AC28" s="116"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="B2:X2"/>
-    <mergeCell ref="B3:X3"/>
-    <mergeCell ref="B4:X4"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="S6:U6"/>
+  <mergeCells count="10">
+    <mergeCell ref="B2:AC2"/>
+    <mergeCell ref="B3:AC3"/>
+    <mergeCell ref="B4:AC4"/>
+    <mergeCell ref="I6:M6"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="T6:V6"/>
+    <mergeCell ref="X6:Z6"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="E6:G6"/>
   </mergeCells>
+  <conditionalFormatting sqref="D1:H4 D7:H1048576 D5:D6">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
